--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -16,7 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. プロジェクト一覧出力(A106)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>PJ名</t>
   </si>
@@ -98,16 +98,6 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物名</t>
   </si>
   <si>
@@ -135,10 +125,6 @@
   <si>
     <t>No.</t>
     <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>1.0版</t>
-    <phoneticPr fontId="14"/>
   </si>
   <si>
     <t>新規</t>
@@ -217,14 +203,50 @@
     <t>1. ログイン(A101)</t>
     <phoneticPr fontId="9"/>
   </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2. プロジェクト管理(A102)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>WA10202 プロジェクト照会 追加</t>
+    <rPh sb="14" eb="16">
+      <t>ショウカイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="0.0&quot;版&quot;"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -580,7 +602,7 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -752,10 +774,10 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,7 +789,13 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -791,10 +819,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6224,14 +6261,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>247714</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>64</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>110609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>62984</xdr:rowOff>
     </xdr:to>
@@ -6244,7 +6281,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1076389" y="2568059"/>
+          <a:off x="4143439" y="2568059"/>
           <a:ext cx="828612" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -6316,14 +6353,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86797</xdr:rowOff>
     </xdr:to>
@@ -6338,8 +6375,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="1905001" y="2829996"/>
-          <a:ext cx="1962149" cy="1"/>
+          <a:off x="4972051" y="2829996"/>
+          <a:ext cx="609599" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6366,8 +6403,8 @@
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>51143</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>203543</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -6383,7 +6420,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4468416" y="1924050"/>
-          <a:ext cx="2327" cy="228601"/>
+          <a:ext cx="1812077" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6405,13 +6442,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6423,7 +6460,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2352675" y="5857875"/>
+          <a:off x="2352675" y="3714750"/>
           <a:ext cx="7258050" cy="1952625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6467,13 +6504,13 @@
     <xdr:from>
       <xdr:col>22</xdr:col>
       <xdr:colOff>2165</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>64510</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6552,13 +6589,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6626,13 +6663,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6706,7 +6743,7 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249299" cy="186974"/>
@@ -6777,13 +6814,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7034,7 +7071,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>11287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="249299" cy="186974"/>
@@ -7105,13 +7142,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7197,13 +7234,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7277,7 +7314,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>68437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826380" cy="186974"/>
@@ -7348,13 +7385,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7410,7 +7447,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>125587</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="480131" cy="186974"/>
@@ -7481,13 +7518,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7534,7 +7571,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826380" cy="168508"/>
@@ -7605,7 +7642,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364715" cy="168508"/>
@@ -7676,13 +7713,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7759,13 +7796,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7847,7 +7884,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>97012</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595548" cy="186974"/>
@@ -7918,13 +7955,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7969,7 +8006,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>11287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595548" cy="186974"/>
@@ -8040,13 +8077,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8092,7 +8129,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>116062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="364715" cy="186974"/>
@@ -8163,13 +8200,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8181,7 +8218,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="4810125"/>
+          <a:off x="7848600" y="5953125"/>
           <a:ext cx="685800" cy="342900"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
@@ -8298,7 +8335,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>1762</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="480131" cy="186974"/>
@@ -8369,13 +8406,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8387,7 +8424,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="5257800"/>
+          <a:off x="7848600" y="6400800"/>
           <a:ext cx="685800" cy="342900"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
@@ -8504,7 +8541,7 @@
     <xdr:from>
       <xdr:col>31</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>20812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826380" cy="186974"/>
@@ -8575,13 +8612,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8628,7 +8665,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>116062</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595548" cy="186974"/>
@@ -8699,7 +8736,7 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>68437</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="595548" cy="186974"/>
@@ -8770,13 +8807,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8788,7 +8825,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="5114925"/>
+          <a:off x="2695575" y="6257925"/>
           <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -8857,13 +8894,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8952,13 +8989,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9005,13 +9042,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9079,13 +9116,13 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9135,13 +9172,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9209,7 +9246,7 @@
     <xdr:from>
       <xdr:col>21</xdr:col>
       <xdr:colOff>175575</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902555" cy="283924"/>
@@ -9298,13 +9335,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9357,13 +9394,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9431,13 +9468,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9483,7 +9520,7 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>58912</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="826380" cy="186974"/>
@@ -9552,14 +9589,14 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>54294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>119298</xdr:rowOff>
     </xdr:to>
@@ -9572,8 +9609,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3867150" y="2654619"/>
-          <a:ext cx="1219200" cy="350754"/>
+          <a:off x="5581650" y="2654619"/>
+          <a:ext cx="1409700" cy="350754"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9617,7 +9654,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA10201</a:t>
+            <a:t>WA10202</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -9632,7 +9669,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト登録</a:t>
+            <a:t>プロジェクト照会</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9641,14 +9678,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>84316</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236716</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>17969</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>170369</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
@@ -9684,7 +9721,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4227691" y="2152651"/>
+          <a:off x="6037441" y="2152651"/>
           <a:ext cx="486103" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9860,14 +9897,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>110609</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>190437</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238062</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>62984</xdr:rowOff>
     </xdr:to>
@@ -9880,7 +9917,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7648575" y="2568059"/>
+          <a:off x="790575" y="2568059"/>
           <a:ext cx="828612" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -9952,14 +9989,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238062</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86796</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>86797</xdr:rowOff>
     </xdr:to>
@@ -9968,14 +10005,14 @@
         <xdr:cNvPr id="104" name="AutoShape 113"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="67" idx="3"/>
-          <a:endCxn id="103" idx="2"/>
+          <a:stCxn id="65" idx="1"/>
+          <a:endCxn id="103" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5086350" y="2829996"/>
-          <a:ext cx="2562225" cy="1"/>
+        <a:xfrm flipH="1">
+          <a:off x="1619187" y="2829996"/>
+          <a:ext cx="590613" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -9996,29 +10033,30 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119298</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="143" name="AutoShape 121"/>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:endCxn id="146" idx="0"/>
+          <a:stCxn id="67" idx="2"/>
+          <a:endCxn id="87" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4467225" y="3038475"/>
-          <a:ext cx="4763" cy="314325"/>
+        <a:xfrm flipH="1">
+          <a:off x="6281738" y="3005373"/>
+          <a:ext cx="4762" cy="299802"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10038,27 +10076,181 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>54294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119298</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Text Box 85"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2209800" y="2654619"/>
+          <a:ext cx="1219200" cy="350754"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA10201</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>84316</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17969</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:clrChange>
+            <a:clrFrom>
+              <a:srgbClr val="FFFFFF"/>
+            </a:clrFrom>
+            <a:clrTo>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="0"/>
+              </a:srgbClr>
+            </a:clrTo>
+          </a:clrChange>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2570341" y="2152651"/>
+          <a:ext cx="486103" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="144" name="Group 359"/>
+        <xdr:cNvPr id="69" name="Group 359"/>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4400550" y="3333750"/>
+          <a:off x="2743200" y="3333750"/>
           <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
@@ -10066,7 +10258,7 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="145" name="Oval 360"/>
+          <xdr:cNvPr id="70" name="Oval 360"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -10094,7 +10286,224 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="146" name="Oval 361"/>
+          <xdr:cNvPr id="71" name="Oval 361"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="673" y="633"/>
+            <a:ext cx="11" cy="12"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86796</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>64</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>86797</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="AutoShape 113"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="65" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3429000" y="2829996"/>
+          <a:ext cx="714439" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>51143</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48816</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="AutoShape 120"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="75" idx="2"/>
+          <a:endCxn id="66" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2813393" y="1924050"/>
+          <a:ext cx="1655023" cy="228601"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>119298</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="AutoShape 121"/>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="65" idx="2"/>
+          <a:endCxn id="70" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2814638" y="3005373"/>
+          <a:ext cx="4762" cy="328377"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="Group 359"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6210300" y="3286125"/>
+          <a:ext cx="142875" cy="152400"/>
+          <a:chOff x="671" y="631"/>
+          <a:chExt cx="15" cy="16"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="Oval 360"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="671" y="631"/>
+            <a:ext cx="15" cy="16"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="C0C0C0"/>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="Oval 361"/>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -14271,7 +14680,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -14285,7 +14694,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="76">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43578</v>
+        <v>43805</v>
       </c>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
@@ -14887,57 +15296,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="125" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="s">
-        <v>17</v>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="126" t="s">
+        <v>11</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="121" t="s">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="116" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="130" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="111" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB1" s="113"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="118"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="104">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="109">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="105"/>
-      <c r="AI1" s="106"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="111"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -14945,53 +15354,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="s">
-        <v>18</v>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="s">
+        <v>17</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="111" t="s">
-        <v>14</v>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="116" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="117" t="str">
+      <c r="AB2" s="118"/>
+      <c r="AC2" s="122" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="118"/>
-      <c r="AE2" s="118"/>
-      <c r="AF2" s="119"/>
-      <c r="AG2" s="104" t="str">
+      <c r="AD2" s="123"/>
+      <c r="AE2" s="123"/>
+      <c r="AF2" s="124"/>
+      <c r="AG2" s="109">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
+        <v>43805</v>
       </c>
-      <c r="AH2" s="105"/>
-      <c r="AI2" s="106"/>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="111"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -14999,45 +15408,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="142" t="s">
-        <v>28</v>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="147" t="s">
+        <v>26</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="113"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="105"/>
-      <c r="AI3" s="106"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="116"/>
+      <c r="AB3" s="118"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="111"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -15072,142 +15481,156 @@
     </row>
     <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
-      <c r="B7" s="107" t="s">
+      <c r="B7" s="112" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="108"/>
-      <c r="D7" s="107" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="109"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="107" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="109"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="110" t="s">
-        <v>27</v>
+      <c r="H7" s="114"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="115" t="s">
+        <v>25</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="107" t="s">
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
+      <c r="N7" s="114"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="108"/>
-      <c r="AF7" s="107" t="s">
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="114"/>
+      <c r="X7" s="114"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
+      <c r="AA7" s="114"/>
+      <c r="AB7" s="114"/>
+      <c r="AC7" s="114"/>
+      <c r="AD7" s="114"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="108"/>
+      <c r="AG7" s="114"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="113"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="95">
+        <v>1</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97">
+        <v>43578</v>
+      </c>
+      <c r="E8" s="98"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92">
-        <v>43578</v>
-      </c>
-      <c r="E8" s="93"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95" t="s">
+      <c r="K8" s="104"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="105"/>
+      <c r="Q8" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="98" t="s">
+      <c r="R8" s="107"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="107"/>
+      <c r="U8" s="107"/>
+      <c r="V8" s="107"/>
+      <c r="W8" s="107"/>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="107"/>
+      <c r="Z8" s="107"/>
+      <c r="AA8" s="107"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="107"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="100"/>
-      <c r="Q8" s="101" t="s">
-        <v>23</v>
+      <c r="AG8" s="104"/>
+      <c r="AH8" s="104"/>
+      <c r="AI8" s="105"/>
+    </row>
+    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="19">
+        <v>2</v>
       </c>
-      <c r="R8" s="102"/>
-      <c r="S8" s="102"/>
-      <c r="T8" s="102"/>
-      <c r="U8" s="102"/>
-      <c r="V8" s="102"/>
-      <c r="W8" s="102"/>
-      <c r="X8" s="102"/>
-      <c r="Y8" s="102"/>
-      <c r="Z8" s="102"/>
-      <c r="AA8" s="102"/>
-      <c r="AB8" s="102"/>
-      <c r="AC8" s="102"/>
-      <c r="AD8" s="102"/>
-      <c r="AE8" s="103"/>
-      <c r="AF8" s="98" t="s">
-        <v>24</v>
+      <c r="B9" s="77">
+        <v>1.1000000000000001</v>
       </c>
-      <c r="AG8" s="99"/>
-      <c r="AH8" s="99"/>
-      <c r="AI8" s="100"/>
-    </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19"/>
-      <c r="B9" s="77"/>
       <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
+      <c r="D9" s="79">
+        <v>43805</v>
+      </c>
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="84"/>
-      <c r="AH9" s="84"/>
-      <c r="AI9" s="85"/>
+      <c r="G9" s="92" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="93" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="93" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
@@ -15216,35 +15639,35 @@
       <c r="D10" s="79"/>
       <c r="E10" s="80"/>
       <c r="F10" s="81"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="88"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="84"/>
-      <c r="AH10" s="84"/>
-      <c r="AI10" s="85"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="88"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
@@ -15253,35 +15676,35 @@
       <c r="D11" s="79"/>
       <c r="E11" s="80"/>
       <c r="F11" s="81"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="83"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="84"/>
-      <c r="N11" s="84"/>
-      <c r="O11" s="84"/>
-      <c r="P11" s="85"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="88"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="84"/>
-      <c r="AH11" s="84"/>
-      <c r="AI11" s="85"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
@@ -15290,35 +15713,35 @@
       <c r="D12" s="79"/>
       <c r="E12" s="80"/>
       <c r="F12" s="81"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-      <c r="L12" s="84"/>
-      <c r="M12" s="84"/>
-      <c r="N12" s="84"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="88"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="84"/>
-      <c r="AH12" s="84"/>
-      <c r="AI12" s="85"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
@@ -15327,35 +15750,35 @@
       <c r="D13" s="79"/>
       <c r="E13" s="80"/>
       <c r="F13" s="81"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="83"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="88"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="84"/>
-      <c r="AH13" s="84"/>
-      <c r="AI13" s="85"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
@@ -15364,35 +15787,35 @@
       <c r="D14" s="79"/>
       <c r="E14" s="80"/>
       <c r="F14" s="81"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="85"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="88"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="85"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
@@ -15401,35 +15824,35 @@
       <c r="D15" s="79"/>
       <c r="E15" s="80"/>
       <c r="F15" s="81"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="87"/>
-      <c r="AE15" s="88"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="84"/>
-      <c r="AH15" s="84"/>
-      <c r="AI15" s="85"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
@@ -15438,35 +15861,35 @@
       <c r="D16" s="79"/>
       <c r="E16" s="80"/>
       <c r="F16" s="81"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="87"/>
-      <c r="AE16" s="88"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="84"/>
-      <c r="AH16" s="84"/>
-      <c r="AI16" s="85"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
@@ -15475,35 +15898,35 @@
       <c r="D17" s="79"/>
       <c r="E17" s="80"/>
       <c r="F17" s="81"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="83"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="87"/>
-      <c r="AE17" s="88"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="84"/>
-      <c r="AH17" s="84"/>
-      <c r="AI17" s="85"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
@@ -15512,35 +15935,35 @@
       <c r="D18" s="79"/>
       <c r="E18" s="80"/>
       <c r="F18" s="81"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="87"/>
-      <c r="AE18" s="88"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="85"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
@@ -15549,35 +15972,35 @@
       <c r="D19" s="79"/>
       <c r="E19" s="80"/>
       <c r="F19" s="81"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="83"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="87"/>
-      <c r="AE19" s="88"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="84"/>
-      <c r="AH19" s="84"/>
-      <c r="AI19" s="85"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
@@ -15586,35 +16009,35 @@
       <c r="D20" s="79"/>
       <c r="E20" s="80"/>
       <c r="F20" s="81"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="87"/>
-      <c r="AE20" s="88"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="84"/>
-      <c r="AH20" s="84"/>
-      <c r="AI20" s="85"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
@@ -15623,35 +16046,35 @@
       <c r="D21" s="79"/>
       <c r="E21" s="80"/>
       <c r="F21" s="81"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="88"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="84"/>
-      <c r="AH21" s="84"/>
-      <c r="AI21" s="85"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
@@ -15660,35 +16083,35 @@
       <c r="D22" s="79"/>
       <c r="E22" s="80"/>
       <c r="F22" s="81"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="87"/>
-      <c r="AE22" s="88"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="85"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
@@ -15697,35 +16120,35 @@
       <c r="D23" s="79"/>
       <c r="E23" s="80"/>
       <c r="F23" s="81"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="78"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="87"/>
-      <c r="AE23" s="88"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="84"/>
-      <c r="AH23" s="84"/>
-      <c r="AI23" s="85"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
@@ -15734,35 +16157,35 @@
       <c r="D24" s="79"/>
       <c r="E24" s="80"/>
       <c r="F24" s="81"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="87"/>
-      <c r="W24" s="87"/>
-      <c r="X24" s="87"/>
-      <c r="Y24" s="87"/>
-      <c r="Z24" s="87"/>
-      <c r="AA24" s="87"/>
-      <c r="AB24" s="87"/>
-      <c r="AC24" s="87"/>
-      <c r="AD24" s="87"/>
-      <c r="AE24" s="88"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="84"/>
-      <c r="AH24" s="84"/>
-      <c r="AI24" s="85"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
@@ -15771,35 +16194,35 @@
       <c r="D25" s="79"/>
       <c r="E25" s="80"/>
       <c r="F25" s="81"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="87"/>
-      <c r="W25" s="87"/>
-      <c r="X25" s="87"/>
-      <c r="Y25" s="87"/>
-      <c r="Z25" s="87"/>
-      <c r="AA25" s="87"/>
-      <c r="AB25" s="87"/>
-      <c r="AC25" s="87"/>
-      <c r="AD25" s="87"/>
-      <c r="AE25" s="88"/>
-      <c r="AF25" s="83"/>
-      <c r="AG25" s="84"/>
-      <c r="AH25" s="84"/>
-      <c r="AI25" s="85"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
@@ -15808,35 +16231,35 @@
       <c r="D26" s="79"/>
       <c r="E26" s="80"/>
       <c r="F26" s="81"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="87"/>
-      <c r="W26" s="87"/>
-      <c r="X26" s="87"/>
-      <c r="Y26" s="87"/>
-      <c r="Z26" s="87"/>
-      <c r="AA26" s="87"/>
-      <c r="AB26" s="87"/>
-      <c r="AC26" s="87"/>
-      <c r="AD26" s="87"/>
-      <c r="AE26" s="88"/>
-      <c r="AF26" s="83"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="85"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
@@ -15845,35 +16268,35 @@
       <c r="D27" s="79"/>
       <c r="E27" s="80"/>
       <c r="F27" s="81"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="82"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="87"/>
-      <c r="S27" s="87"/>
-      <c r="T27" s="87"/>
-      <c r="U27" s="87"/>
-      <c r="V27" s="87"/>
-      <c r="W27" s="87"/>
-      <c r="X27" s="87"/>
-      <c r="Y27" s="87"/>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="87"/>
-      <c r="AB27" s="87"/>
-      <c r="AC27" s="87"/>
-      <c r="AD27" s="87"/>
-      <c r="AE27" s="88"/>
-      <c r="AF27" s="83"/>
-      <c r="AG27" s="84"/>
-      <c r="AH27" s="84"/>
-      <c r="AI27" s="85"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
@@ -15882,35 +16305,35 @@
       <c r="D28" s="79"/>
       <c r="E28" s="80"/>
       <c r="F28" s="81"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="87"/>
-      <c r="S28" s="87"/>
-      <c r="T28" s="87"/>
-      <c r="U28" s="87"/>
-      <c r="V28" s="87"/>
-      <c r="W28" s="87"/>
-      <c r="X28" s="87"/>
-      <c r="Y28" s="87"/>
-      <c r="Z28" s="87"/>
-      <c r="AA28" s="87"/>
-      <c r="AB28" s="87"/>
-      <c r="AC28" s="87"/>
-      <c r="AD28" s="87"/>
-      <c r="AE28" s="88"/>
-      <c r="AF28" s="83"/>
-      <c r="AG28" s="84"/>
-      <c r="AH28" s="84"/>
-      <c r="AI28" s="85"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
@@ -15919,35 +16342,35 @@
       <c r="D29" s="79"/>
       <c r="E29" s="80"/>
       <c r="F29" s="81"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="87"/>
-      <c r="S29" s="87"/>
-      <c r="T29" s="87"/>
-      <c r="U29" s="87"/>
-      <c r="V29" s="87"/>
-      <c r="W29" s="87"/>
-      <c r="X29" s="87"/>
-      <c r="Y29" s="87"/>
-      <c r="Z29" s="87"/>
-      <c r="AA29" s="87"/>
-      <c r="AB29" s="87"/>
-      <c r="AC29" s="87"/>
-      <c r="AD29" s="87"/>
-      <c r="AE29" s="88"/>
-      <c r="AF29" s="83"/>
-      <c r="AG29" s="84"/>
-      <c r="AH29" s="84"/>
-      <c r="AI29" s="85"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
@@ -15956,35 +16379,35 @@
       <c r="D30" s="79"/>
       <c r="E30" s="80"/>
       <c r="F30" s="81"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="82"/>
-      <c r="I30" s="78"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="87"/>
-      <c r="S30" s="87"/>
-      <c r="T30" s="87"/>
-      <c r="U30" s="87"/>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
-      <c r="Z30" s="87"/>
-      <c r="AA30" s="87"/>
-      <c r="AB30" s="87"/>
-      <c r="AC30" s="87"/>
-      <c r="AD30" s="87"/>
-      <c r="AE30" s="88"/>
-      <c r="AF30" s="83"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="85"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
@@ -15993,35 +16416,35 @@
       <c r="D31" s="79"/>
       <c r="E31" s="80"/>
       <c r="F31" s="81"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="82"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="87"/>
-      <c r="S31" s="87"/>
-      <c r="T31" s="87"/>
-      <c r="U31" s="87"/>
-      <c r="V31" s="87"/>
-      <c r="W31" s="87"/>
-      <c r="X31" s="87"/>
-      <c r="Y31" s="87"/>
-      <c r="Z31" s="87"/>
-      <c r="AA31" s="87"/>
-      <c r="AB31" s="87"/>
-      <c r="AC31" s="87"/>
-      <c r="AD31" s="87"/>
-      <c r="AE31" s="88"/>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="84"/>
-      <c r="AH31" s="84"/>
-      <c r="AI31" s="85"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
@@ -16030,35 +16453,35 @@
       <c r="D32" s="79"/>
       <c r="E32" s="80"/>
       <c r="F32" s="81"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="87"/>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="87"/>
-      <c r="AC32" s="87"/>
-      <c r="AD32" s="87"/>
-      <c r="AE32" s="88"/>
-      <c r="AF32" s="83"/>
-      <c r="AG32" s="84"/>
-      <c r="AH32" s="84"/>
-      <c r="AI32" s="85"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
@@ -16067,35 +16490,35 @@
       <c r="D33" s="79"/>
       <c r="E33" s="80"/>
       <c r="F33" s="81"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="87"/>
-      <c r="S33" s="87"/>
-      <c r="T33" s="87"/>
-      <c r="U33" s="87"/>
-      <c r="V33" s="87"/>
-      <c r="W33" s="87"/>
-      <c r="X33" s="87"/>
-      <c r="Y33" s="87"/>
-      <c r="Z33" s="87"/>
-      <c r="AA33" s="87"/>
-      <c r="AB33" s="87"/>
-      <c r="AC33" s="87"/>
-      <c r="AD33" s="87"/>
-      <c r="AE33" s="88"/>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="84"/>
-      <c r="AH33" s="84"/>
-      <c r="AI33" s="85"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
@@ -16437,163 +16860,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="121" t="s">
-        <v>12</v>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="126" t="s">
+        <v>11</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="143" t="str">
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="148" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="144" t="s">
-        <v>13</v>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+      <c r="X1" s="136"/>
+      <c r="Y1" s="136"/>
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="149" t="s">
+        <v>12</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="144" t="s">
-        <v>14</v>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="129"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="139"/>
+      <c r="U2" s="139"/>
+      <c r="V2" s="139"/>
+      <c r="W2" s="139"/>
+      <c r="X2" s="139"/>
+      <c r="Y2" s="139"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="149" t="s">
+        <v>13</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43805</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="144"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="132"/>
+      <c r="P3" s="133"/>
+      <c r="Q3" s="133"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="149"/>
+      <c r="AB3" s="150"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16653,7 +17076,7 @@
       <c r="O5" s="33"/>
       <c r="P5" s="33"/>
       <c r="Q5" s="36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="R5" s="33"/>
       <c r="S5" s="33"/>
@@ -16714,7 +17137,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37"/>
       <c r="B7" s="74" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -16790,7 +17213,7 @@
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="37"/>
       <c r="B9" s="75" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -16866,7 +17289,7 @@
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="33"/>
@@ -17622,163 +18045,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="149" t="s">
-        <v>15</v>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="154" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43805</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -17823,7 +18246,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -21487,7 +21910,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL87"/>
+  <dimension ref="A1:AL95"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -21499,163 +21922,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="149" t="s">
-        <v>15</v>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="154" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43805</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -21700,7 +22123,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -22486,8 +22909,6 @@
       <c r="AA26" s="15"/>
       <c r="AB26" s="15"/>
       <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
       <c r="AF26" s="15"/>
       <c r="AG26" s="15"/>
       <c r="AH26" s="15"/>
@@ -22523,8 +22944,6 @@
       <c r="AA27" s="15"/>
       <c r="AB27" s="15"/>
       <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
       <c r="AF27" s="15"/>
       <c r="AG27" s="15"/>
       <c r="AH27" s="15"/>
@@ -22560,8 +22979,6 @@
       <c r="AA28" s="15"/>
       <c r="AB28" s="15"/>
       <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
       <c r="AF28" s="15"/>
       <c r="AG28" s="15"/>
       <c r="AH28" s="15"/>
@@ -22597,8 +23014,6 @@
       <c r="AA29" s="15"/>
       <c r="AB29" s="15"/>
       <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
       <c r="AF29" s="15"/>
       <c r="AG29" s="15"/>
       <c r="AH29" s="15"/>
@@ -22634,8 +23049,6 @@
       <c r="AA30" s="15"/>
       <c r="AB30" s="15"/>
       <c r="AC30" s="15"/>
-      <c r="AD30" s="15"/>
-      <c r="AE30" s="15"/>
       <c r="AF30" s="15"/>
       <c r="AG30" s="15"/>
       <c r="AH30" s="15"/>
@@ -22671,8 +23084,6 @@
       <c r="AA31" s="15"/>
       <c r="AB31" s="15"/>
       <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
       <c r="AF31" s="15"/>
       <c r="AG31" s="15"/>
       <c r="AH31" s="15"/>
@@ -22708,8 +23119,6 @@
       <c r="AA32" s="15"/>
       <c r="AB32" s="15"/>
       <c r="AC32" s="15"/>
-      <c r="AD32" s="15"/>
-      <c r="AE32" s="15"/>
       <c r="AF32" s="15"/>
       <c r="AG32" s="15"/>
       <c r="AH32" s="15"/>
@@ -22745,8 +23154,6 @@
       <c r="AA33" s="15"/>
       <c r="AB33" s="15"/>
       <c r="AC33" s="15"/>
-      <c r="AD33" s="15"/>
-      <c r="AE33" s="15"/>
       <c r="AF33" s="15"/>
       <c r="AG33" s="15"/>
       <c r="AH33" s="15"/>
@@ -23011,7 +23418,7 @@
       <c r="AH40" s="15"/>
       <c r="AI40" s="15"/>
     </row>
-    <row r="41" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41" s="15"/>
       <c r="B41" s="15"/>
       <c r="C41" s="15"/>
@@ -23048,7 +23455,7 @@
       <c r="AH41" s="15"/>
       <c r="AI41" s="15"/>
     </row>
-    <row r="42" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="15"/>
       <c r="B42" s="15"/>
       <c r="C42" s="15"/>
@@ -23085,7 +23492,7 @@
       <c r="AH42" s="15"/>
       <c r="AI42" s="15"/>
     </row>
-    <row r="43" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="15"/>
       <c r="B43" s="15"/>
       <c r="C43" s="15"/>
@@ -23122,7 +23529,7 @@
       <c r="AH43" s="15"/>
       <c r="AI43" s="15"/>
     </row>
-    <row r="44" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="15"/>
@@ -23307,7 +23714,7 @@
       <c r="AH48" s="15"/>
       <c r="AI48" s="15"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15"/>
       <c r="B49" s="15"/>
       <c r="C49" s="15"/>
@@ -23344,7 +23751,7 @@
       <c r="AH49" s="15"/>
       <c r="AI49" s="15"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="15"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
@@ -23381,7 +23788,7 @@
       <c r="AH50" s="15"/>
       <c r="AI50" s="15"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
@@ -23418,7 +23825,7 @@
       <c r="AH51" s="15"/>
       <c r="AI51" s="15"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="15"/>
       <c r="B52" s="15"/>
       <c r="C52" s="15"/>
@@ -24749,6 +25156,302 @@
       <c r="AG87" s="15"/>
       <c r="AH87" s="15"/>
       <c r="AI87" s="15"/>
+    </row>
+    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A88" s="15"/>
+      <c r="B88" s="15"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="15"/>
+      <c r="L88" s="15"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="15"/>
+      <c r="O88" s="15"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="15"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="15"/>
+      <c r="V88" s="15"/>
+      <c r="W88" s="15"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="15"/>
+      <c r="AA88" s="15"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+    </row>
+    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A89" s="15"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
+      <c r="L89" s="15"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15"/>
+      <c r="O89" s="15"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="15"/>
+      <c r="S89" s="15"/>
+      <c r="T89" s="15"/>
+      <c r="U89" s="15"/>
+      <c r="V89" s="15"/>
+      <c r="W89" s="15"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="15"/>
+      <c r="AA89" s="15"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="15"/>
+      <c r="AD89" s="15"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+    </row>
+    <row r="90" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A90" s="15"/>
+      <c r="B90" s="15"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="15"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="15"/>
+      <c r="S90" s="15"/>
+      <c r="T90" s="15"/>
+      <c r="U90" s="15"/>
+      <c r="V90" s="15"/>
+      <c r="W90" s="15"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="15"/>
+      <c r="AA90" s="15"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+    </row>
+    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A91" s="15"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="15"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="15"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="15"/>
+      <c r="S91" s="15"/>
+      <c r="T91" s="15"/>
+      <c r="U91" s="15"/>
+      <c r="V91" s="15"/>
+      <c r="W91" s="15"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="15"/>
+      <c r="AA91" s="15"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+    </row>
+    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A92" s="15"/>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="15"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="15"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="15"/>
+      <c r="S92" s="15"/>
+      <c r="T92" s="15"/>
+      <c r="U92" s="15"/>
+      <c r="V92" s="15"/>
+      <c r="W92" s="15"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="15"/>
+      <c r="AA92" s="15"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="15"/>
+      <c r="AD92" s="15"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+    </row>
+    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A93" s="15"/>
+      <c r="B93" s="15"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="15"/>
+      <c r="L93" s="15"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="15"/>
+      <c r="O93" s="15"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="15"/>
+      <c r="S93" s="15"/>
+      <c r="T93" s="15"/>
+      <c r="U93" s="15"/>
+      <c r="V93" s="15"/>
+      <c r="W93" s="15"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="15"/>
+      <c r="AA93" s="15"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+    </row>
+    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A94" s="15"/>
+      <c r="B94" s="15"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="15"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="15"/>
+      <c r="S94" s="15"/>
+      <c r="T94" s="15"/>
+      <c r="U94" s="15"/>
+      <c r="V94" s="15"/>
+      <c r="W94" s="15"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="15"/>
+      <c r="AA94" s="15"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+    </row>
+    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A95" s="15"/>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="15"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="15"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="15"/>
+      <c r="S95" s="15"/>
+      <c r="T95" s="15"/>
+      <c r="U95" s="15"/>
+      <c r="V95" s="15"/>
+      <c r="W95" s="15"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="15"/>
+      <c r="AA95" s="15"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="15"/>
+      <c r="AD95" s="15"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -24798,163 +25501,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="149" t="s">
-        <v>15</v>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="154" t="s">
+        <v>14</v>
       </c>
-      <c r="P1" s="150"/>
-      <c r="Q1" s="150"/>
-      <c r="R1" s="151"/>
-      <c r="S1" s="158" t="str">
+      <c r="P1" s="155"/>
+      <c r="Q1" s="155"/>
+      <c r="R1" s="156"/>
+      <c r="S1" s="163" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="159"/>
-      <c r="U1" s="159"/>
-      <c r="V1" s="159"/>
-      <c r="W1" s="159"/>
-      <c r="X1" s="159"/>
-      <c r="Y1" s="159"/>
-      <c r="Z1" s="160"/>
-      <c r="AA1" s="144" t="s">
+      <c r="T1" s="164"/>
+      <c r="U1" s="164"/>
+      <c r="V1" s="164"/>
+      <c r="W1" s="164"/>
+      <c r="X1" s="164"/>
+      <c r="Y1" s="164"/>
+      <c r="Z1" s="165"/>
+      <c r="AA1" s="149" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="139" t="str">
+      <c r="AB1" s="150"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="140"/>
-      <c r="AE1" s="140"/>
-      <c r="AF1" s="141"/>
-      <c r="AG1" s="146">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="147"/>
-      <c r="AI1" s="148"/>
+      <c r="AH1" s="152"/>
+      <c r="AI1" s="153"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="111" t="s">
+      <c r="A2" s="116" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="152"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="154"/>
-      <c r="S2" s="161"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="163"/>
-      <c r="AA2" s="144" t="s">
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="157"/>
+      <c r="P2" s="158"/>
+      <c r="Q2" s="158"/>
+      <c r="R2" s="159"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="167"/>
+      <c r="U2" s="167"/>
+      <c r="V2" s="167"/>
+      <c r="W2" s="167"/>
+      <c r="X2" s="167"/>
+      <c r="Y2" s="167"/>
+      <c r="Z2" s="168"/>
+      <c r="AA2" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="139" t="str">
+      <c r="AB2" s="150"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
+        <v>TIS</v>
       </c>
-      <c r="AD2" s="140"/>
-      <c r="AE2" s="140"/>
-      <c r="AF2" s="141"/>
-      <c r="AG2" s="146" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="151">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
+        <v>43805</v>
       </c>
-      <c r="AH2" s="147"/>
-      <c r="AI2" s="148"/>
+      <c r="AH2" s="152"/>
+      <c r="AI2" s="153"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="111" t="s">
+      <c r="A3" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="155"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="157"/>
-      <c r="S3" s="164"/>
-      <c r="T3" s="165"/>
-      <c r="U3" s="165"/>
-      <c r="V3" s="165"/>
-      <c r="W3" s="165"/>
-      <c r="X3" s="165"/>
-      <c r="Y3" s="165"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="167"/>
-      <c r="AB3" s="168"/>
-      <c r="AC3" s="139" t="str">
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
+      <c r="N3" s="121"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="161"/>
+      <c r="Q3" s="161"/>
+      <c r="R3" s="162"/>
+      <c r="S3" s="169"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="171"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="173"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="140"/>
-      <c r="AE3" s="140"/>
-      <c r="AF3" s="141"/>
-      <c r="AG3" s="146" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="148"/>
+      <c r="AH3" s="152"/>
+      <c r="AI3" s="153"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -24999,7 +25702,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AAD20C-65AA-4CF2-B96A-F3A0DCFB83A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57302F9-18EA-4326-BE4C-97F8B9AEE1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="3120" windowWidth="38205" windowHeight="15090" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -6783,15 +6783,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>199635</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>103049</xdr:rowOff>
+      <xdr:colOff>40885</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>60718</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>55425</xdr:rowOff>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13093</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6808,7 +6808,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4327135" y="5140716"/>
+          <a:off x="4168385" y="2135051"/>
           <a:ext cx="825437" cy="545042"/>
         </a:xfrm>
         <a:prstGeom prst="can">
@@ -6881,13 +6881,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>48816</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>49345</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>203543</xdr:colOff>
+      <xdr:colOff>203036</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -6908,8 +6908,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4468416" y="1924050"/>
-          <a:ext cx="1812077" cy="228601"/>
+          <a:off x="4452012" y="1572685"/>
+          <a:ext cx="1804691" cy="625474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6953,8 +6953,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3491983" y="5845457"/>
-          <a:ext cx="7230534" cy="2026708"/>
+          <a:off x="3504683" y="5667657"/>
+          <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
         </a:xfrm>
@@ -9833,8 +9833,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5560483" y="2198159"/>
-          <a:ext cx="1404409" cy="884472"/>
+          <a:off x="5581650" y="2152651"/>
+          <a:ext cx="1409700" cy="852722"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -9982,14 +9982,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>263128</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>100543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>110728</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10006,8 +10006,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3854053" y="1504950"/>
-          <a:ext cx="1228725" cy="419100"/>
+          <a:off x="3840295" y="1137710"/>
+          <a:ext cx="1223433" cy="434975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10089,14 +10089,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219076</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10113,8 +10113,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362451" y="838200"/>
-          <a:ext cx="228600" cy="228600"/>
+          <a:off x="4346576" y="889001"/>
+          <a:ext cx="227542" cy="239184"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -10142,53 +10142,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>52388</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>128823</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="143" name="AutoShape 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00008F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="6129338" y="3014898"/>
-          <a:ext cx="4762" cy="299802"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -10385,8 +10338,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2733675" y="3426883"/>
-          <a:ext cx="141817" cy="157692"/>
+          <a:off x="2743200" y="3333750"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10465,13 +10418,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>51143</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>51142</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>91018</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>48816</xdr:colOff>
+      <xdr:colOff>49345</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
@@ -10492,8 +10445,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2813393" y="1924050"/>
-          <a:ext cx="1655023" cy="228601"/>
+          <a:off x="2802809" y="1572685"/>
+          <a:ext cx="1649203" cy="625474"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10562,111 +10515,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="85" name="Group 359">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6035675" y="3426883"/>
-          <a:ext cx="141817" cy="157692"/>
-          <a:chOff x="671" y="631"/>
-          <a:chExt cx="15" cy="16"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="86" name="Oval 360">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000056000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="671" y="631"/>
-            <a:ext cx="15" cy="16"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="C0C0C0"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="Oval 361">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000057000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noChangeArrowheads="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="673" y="633"/>
-            <a:ext cx="11" cy="12"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:ln w="9525">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:round/>
-            <a:headEnd/>
-            <a:tailEnd/>
-          </a:ln>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>54429</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -10691,8 +10539,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5557762" y="3827992"/>
-          <a:ext cx="1404410" cy="884471"/>
+          <a:off x="5578929" y="3724275"/>
+          <a:ext cx="1409701" cy="852721"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10865,13 +10713,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>17969</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>44980</xdr:rowOff>
+      <xdr:rowOff>36905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>62021</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>103049</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>40885</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44980</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -10883,14 +10731,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="1"/>
+          <a:stCxn id="3" idx="2"/>
           <a:endCxn id="66" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3044802" y="2415647"/>
-          <a:ext cx="1695052" cy="2725069"/>
+        <a:xfrm flipH="1">
+          <a:off x="3044802" y="2407572"/>
+          <a:ext cx="1123583" cy="8075"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -10996,8 +10844,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6138032" y="5135638"/>
-          <a:ext cx="138793" cy="157690"/>
+          <a:off x="6161315" y="4984296"/>
+          <a:ext cx="138793" cy="152399"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -11075,16 +10923,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>62021</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85557</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>36905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>103049</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>236063</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>44845</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11096,14 +10944,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="67" idx="1"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:stCxn id="68" idx="1"/>
+          <a:endCxn id="3" idx="4"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4739854" y="2900724"/>
-          <a:ext cx="820629" cy="2239992"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4993822" y="2407572"/>
+          <a:ext cx="1020741" cy="7940"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -11136,16 +10984,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>199572</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85557</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>178437</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13093</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>54429</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>79237</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>233343</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>44844</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11157,14 +11005,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="102" idx="1"/>
-          <a:endCxn id="3" idx="4"/>
+          <a:stCxn id="105" idx="1"/>
+          <a:endCxn id="3" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5152572" y="4530557"/>
-          <a:ext cx="405190" cy="882680"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4581104" y="2680093"/>
+          <a:ext cx="1430739" cy="1365251"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -23054,7 +22902,7 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57302F9-18EA-4326-BE4C-97F8B9AEE1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0177542-D1D8-45AC-B9D5-2EDB0BF4BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1146,8 +1148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7953375" y="285750"/>
-          <a:ext cx="1400175" cy="590550"/>
+          <a:off x="8496300" y="281940"/>
+          <a:ext cx="1508760" cy="579120"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3839,8 +3841,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6953250"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="8435340" y="6696075"/>
+          <a:ext cx="727710" cy="331470"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4081,8 +4083,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="7400925"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="8435340" y="7126605"/>
+          <a:ext cx="727710" cy="325755"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4536,8 +4538,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="7258050"/>
-          <a:ext cx="142875" cy="152400"/>
+          <a:off x="2884170" y="6989445"/>
+          <a:ext cx="163830" cy="146685"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -6953,8 +6955,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3504683" y="5667657"/>
-          <a:ext cx="7258051" cy="1952625"/>
+          <a:off x="3756143" y="5461917"/>
+          <a:ext cx="7802881" cy="1872615"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
         </a:xfrm>
@@ -9833,8 +9835,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5581650" y="2152651"/>
-          <a:ext cx="1409700" cy="852722"/>
+          <a:off x="6000750" y="2089786"/>
+          <a:ext cx="1514475" cy="818432"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -9914,7 +9916,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>プロジェクト照会</a:t>
+              <a:t>プロジェクト検索</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10338,8 +10340,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2743200" y="3333750"/>
-          <a:ext cx="142875" cy="152400"/>
+          <a:off x="2931795" y="3219450"/>
+          <a:ext cx="163830" cy="146685"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10539,8 +10541,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5578929" y="3724275"/>
-          <a:ext cx="1409701" cy="852721"/>
+          <a:off x="5998029" y="3598545"/>
+          <a:ext cx="1514476" cy="818431"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10844,8 +10846,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6161315" y="4984296"/>
-          <a:ext cx="138793" cy="152399"/>
+          <a:off x="6622325" y="4807131"/>
+          <a:ext cx="138793" cy="146684"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -13123,8 +13125,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="6953250"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="8435340" y="6696075"/>
+          <a:ext cx="727710" cy="331470"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13365,8 +13367,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7848600" y="7400925"/>
-          <a:ext cx="685800" cy="342900"/>
+          <a:off x="8435340" y="7126605"/>
+          <a:ext cx="727710" cy="325755"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13820,8 +13822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2695575" y="7258050"/>
-          <a:ext cx="142875" cy="152400"/>
+          <a:off x="2884170" y="6989445"/>
+          <a:ext cx="163830" cy="146685"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -14948,7 +14950,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>期間内プロジェクト一覧出力バッチ</a:t>
+            <a:t>プロジェクト一覧出力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14983,8 +14985,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4381500" y="4010025"/>
-          <a:ext cx="142875" cy="152400"/>
+          <a:off x="4695825" y="3872865"/>
+          <a:ext cx="163830" cy="146685"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -15616,42 +15618,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -15659,12 +15661,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -15675,42 +15677,42 @@
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -15720,7 +15722,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -15733,515 +15735,515 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -16266,9 +16268,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -17510,7 +17512,7 @@
       <c r="AH33" s="125"/>
       <c r="AI33" s="126"/>
     </row>
-    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
@@ -17714,139 +17716,139 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="44"/>
-    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="44"/>
-    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="44"/>
-    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="44"/>
-    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="44"/>
-    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="44"/>
-    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="44"/>
-    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="44"/>
-    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="44"/>
-    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="44"/>
-    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="44"/>
-    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="44"/>
-    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="44"/>
-    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="44"/>
-    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="44"/>
-    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="44"/>
-    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="44"/>
-    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="44"/>
-    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="44"/>
-    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="44"/>
-    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="44"/>
-    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="44"/>
-    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="44"/>
-    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="44"/>
-    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="44"/>
-    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="44"/>
-    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="44"/>
-    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="44"/>
-    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="44"/>
-    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="44"/>
-    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="44"/>
-    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="44"/>
-    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="44"/>
-    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="44"/>
-    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="44"/>
-    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="44"/>
-    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="44"/>
-    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="44"/>
-    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="44"/>
-    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="44"/>
-    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="44"/>
-    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="44"/>
-    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="44"/>
-    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="44"/>
-    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="44"/>
-    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="44"/>
-    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="44"/>
-    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="44"/>
-    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="44"/>
-    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="44"/>
-    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="44"/>
-    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="44"/>
-    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="44"/>
-    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="44"/>
-    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="44"/>
-    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="44"/>
-    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="44"/>
-    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="44"/>
-    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="44"/>
-    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="44"/>
-    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="44"/>
-    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="44"/>
-    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="44"/>
-    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="44"/>
+    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.875" style="44"/>
+    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.875" style="44"/>
+    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.875" style="44"/>
+    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.875" style="44"/>
+    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.875" style="44"/>
+    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.875" style="44"/>
+    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.875" style="44"/>
+    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.875" style="44"/>
+    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.875" style="44"/>
+    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.875" style="44"/>
+    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.875" style="44"/>
+    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.875" style="44"/>
+    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.875" style="44"/>
+    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.875" style="44"/>
+    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.875" style="44"/>
+    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.875" style="44"/>
+    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.875" style="44"/>
+    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.875" style="44"/>
+    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.875" style="44"/>
+    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.875" style="44"/>
+    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.875" style="44"/>
+    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.875" style="44"/>
+    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.875" style="44"/>
+    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.875" style="44"/>
+    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.875" style="44"/>
+    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.875" style="44"/>
+    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.875" style="44"/>
+    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.875" style="44"/>
+    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.875" style="44"/>
+    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.875" style="44"/>
+    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.875" style="44"/>
+    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.875" style="44"/>
+    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.875" style="44"/>
+    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.875" style="44"/>
+    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.875" style="44"/>
+    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.875" style="44"/>
+    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.875" style="44"/>
+    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.875" style="44"/>
+    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.875" style="44"/>
+    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.875" style="44"/>
+    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.875" style="44"/>
+    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.875" style="44"/>
+    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.875" style="44"/>
+    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.875" style="44"/>
+    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.875" style="44"/>
+    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.875" style="44"/>
+    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.875" style="44"/>
+    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.875" style="44"/>
+    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.875" style="44"/>
+    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.875" style="44"/>
+    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.875" style="44"/>
+    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.875" style="44"/>
+    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.875" style="44"/>
+    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.875" style="44"/>
+    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.875" style="44"/>
+    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.875" style="44"/>
+    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.875" style="44"/>
+    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.875" style="44"/>
+    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.875" style="44"/>
+    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.875" style="44"/>
+    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.875" style="44"/>
+    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.875" style="44"/>
+    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.875" style="44"/>
+    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.875" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -18574,7 +18576,7 @@
       <c r="AH18" s="51"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
       <c r="B19" s="55"/>
       <c r="C19" s="37"/>
@@ -18648,7 +18650,7 @@
       <c r="AH20" s="51"/>
       <c r="AI20" s="52"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="48"/>
       <c r="B21" s="55"/>
       <c r="C21" s="37"/>
@@ -19029,9 +19031,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -22906,9 +22908,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -26485,9 +26487,9 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="14"/>
+    <col min="1" max="16384" width="4.875" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0177542-D1D8-45AC-B9D5-2EDB0BF4BFBB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2F82F-3B52-416A-B8AC-0D20714A909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1950" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -28,17 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -802,6 +792,108 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -919,107 +1011,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1030,17 +1029,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1095,6 +1083,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1148,8 +1138,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8496300" y="281940"/>
-          <a:ext cx="1508760" cy="579120"/>
+          <a:off x="7953375" y="285750"/>
+          <a:ext cx="1400175" cy="590550"/>
           <a:chOff x="591" y="61"/>
           <a:chExt cx="147" cy="62"/>
         </a:xfrm>
@@ -3841,8 +3831,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6696075"/>
-          <a:ext cx="727710" cy="331470"/>
+          <a:off x="7848600" y="6953250"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4083,8 +4073,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="7126605"/>
-          <a:ext cx="727710" cy="325755"/>
+          <a:off x="7848600" y="7400925"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -4538,8 +4528,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2884170" y="6989445"/>
-          <a:ext cx="163830" cy="146685"/>
+          <a:off x="2695575" y="7258050"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -6955,8 +6945,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3756143" y="5461917"/>
-          <a:ext cx="7802881" cy="1872615"/>
+          <a:off x="3504683" y="5667657"/>
+          <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
         </a:xfrm>
@@ -9835,8 +9825,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6000750" y="2089786"/>
-          <a:ext cx="1514475" cy="818432"/>
+          <a:off x="5581650" y="2152651"/>
+          <a:ext cx="1409700" cy="852722"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10340,8 +10330,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2931795" y="3219450"/>
-          <a:ext cx="163830" cy="146685"/>
+          <a:off x="2743200" y="3333750"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10541,8 +10531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5998029" y="3598545"/>
-          <a:ext cx="1514476" cy="818431"/>
+          <a:off x="5578929" y="3724275"/>
+          <a:ext cx="1409701" cy="852721"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10607,7 +10597,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>WA10203WA</a:t>
+              <a:t>WA10203</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -10846,8 +10836,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6622325" y="4807131"/>
-          <a:ext cx="138793" cy="146684"/>
+          <a:off x="6161315" y="4984296"/>
+          <a:ext cx="138793" cy="152399"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -13125,8 +13115,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="6696075"/>
-          <a:ext cx="727710" cy="331470"/>
+          <a:off x="7848600" y="6953250"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13367,8 +13357,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8435340" y="7126605"/>
-          <a:ext cx="727710" cy="325755"/>
+          <a:off x="7848600" y="7400925"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13822,8 +13812,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2884170" y="6989445"/>
-          <a:ext cx="163830" cy="146685"/>
+          <a:off x="2695575" y="7258050"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -14985,8 +14975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4695825" y="3872865"/>
-          <a:ext cx="163830" cy="146685"/>
+          <a:off x="4381500" y="4010025"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -15618,42 +15608,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="8.875" style="1"/>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
       <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="30"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
@@ -15661,12 +15651,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
@@ -15677,42 +15667,42 @@
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
     </row>
-    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="4"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="3"/>
       <c r="G30" s="10"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="3"/>
       <c r="G31" s="10"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="6:11" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="3"/>
       <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="J32" s="31"/>
     </row>
-    <row r="33" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
       <c r="J33" s="5"/>
@@ -15722,7 +15712,7 @@
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
     </row>
-    <row r="34" spans="6:19" ht="19.2" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
       <c r="J34" s="31"/>
@@ -15735,515 +15725,515 @@
       <c r="R34" s="25"/>
       <c r="S34" s="25"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="25"/>
       <c r="R35" s="25"/>
       <c r="S35" s="25"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="26"/>
       <c r="P36" s="25"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="25"/>
       <c r="S36" s="26"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="27"/>
       <c r="P37" s="27"/>
       <c r="Q37" s="27"/>
       <c r="R37" s="28"/>
       <c r="S37" s="27"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="27"/>
       <c r="P38" s="27"/>
       <c r="Q38" s="28"/>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="28"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -16268,63 +16258,63 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="103" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="84" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="111">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="113"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16332,53 +16322,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="84" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="111">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="113"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16386,45 +16376,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="115" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16461,1218 +16451,1062 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="97">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79">
         <v>43805</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124" t="s">
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79">
         <v>43895</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="148" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="95" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124" t="s">
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="88"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="85"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
-    </row>
-    <row r="34" spans="1:35" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
+    </row>
+    <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17696,6 +17530,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -17716,299 +17706,299 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.875" style="44" customWidth="1"/>
-    <col min="17" max="17" width="4.875" style="63" customWidth="1"/>
-    <col min="18" max="33" width="4.875" style="44" customWidth="1"/>
-    <col min="34" max="34" width="4.875" style="63" customWidth="1"/>
-    <col min="35" max="256" width="4.875" style="44"/>
-    <col min="257" max="290" width="4.875" style="44" customWidth="1"/>
-    <col min="291" max="512" width="4.875" style="44"/>
-    <col min="513" max="546" width="4.875" style="44" customWidth="1"/>
-    <col min="547" max="768" width="4.875" style="44"/>
-    <col min="769" max="802" width="4.875" style="44" customWidth="1"/>
-    <col min="803" max="1024" width="4.875" style="44"/>
-    <col min="1025" max="1058" width="4.875" style="44" customWidth="1"/>
-    <col min="1059" max="1280" width="4.875" style="44"/>
-    <col min="1281" max="1314" width="4.875" style="44" customWidth="1"/>
-    <col min="1315" max="1536" width="4.875" style="44"/>
-    <col min="1537" max="1570" width="4.875" style="44" customWidth="1"/>
-    <col min="1571" max="1792" width="4.875" style="44"/>
-    <col min="1793" max="1826" width="4.875" style="44" customWidth="1"/>
-    <col min="1827" max="2048" width="4.875" style="44"/>
-    <col min="2049" max="2082" width="4.875" style="44" customWidth="1"/>
-    <col min="2083" max="2304" width="4.875" style="44"/>
-    <col min="2305" max="2338" width="4.875" style="44" customWidth="1"/>
-    <col min="2339" max="2560" width="4.875" style="44"/>
-    <col min="2561" max="2594" width="4.875" style="44" customWidth="1"/>
-    <col min="2595" max="2816" width="4.875" style="44"/>
-    <col min="2817" max="2850" width="4.875" style="44" customWidth="1"/>
-    <col min="2851" max="3072" width="4.875" style="44"/>
-    <col min="3073" max="3106" width="4.875" style="44" customWidth="1"/>
-    <col min="3107" max="3328" width="4.875" style="44"/>
-    <col min="3329" max="3362" width="4.875" style="44" customWidth="1"/>
-    <col min="3363" max="3584" width="4.875" style="44"/>
-    <col min="3585" max="3618" width="4.875" style="44" customWidth="1"/>
-    <col min="3619" max="3840" width="4.875" style="44"/>
-    <col min="3841" max="3874" width="4.875" style="44" customWidth="1"/>
-    <col min="3875" max="4096" width="4.875" style="44"/>
-    <col min="4097" max="4130" width="4.875" style="44" customWidth="1"/>
-    <col min="4131" max="4352" width="4.875" style="44"/>
-    <col min="4353" max="4386" width="4.875" style="44" customWidth="1"/>
-    <col min="4387" max="4608" width="4.875" style="44"/>
-    <col min="4609" max="4642" width="4.875" style="44" customWidth="1"/>
-    <col min="4643" max="4864" width="4.875" style="44"/>
-    <col min="4865" max="4898" width="4.875" style="44" customWidth="1"/>
-    <col min="4899" max="5120" width="4.875" style="44"/>
-    <col min="5121" max="5154" width="4.875" style="44" customWidth="1"/>
-    <col min="5155" max="5376" width="4.875" style="44"/>
-    <col min="5377" max="5410" width="4.875" style="44" customWidth="1"/>
-    <col min="5411" max="5632" width="4.875" style="44"/>
-    <col min="5633" max="5666" width="4.875" style="44" customWidth="1"/>
-    <col min="5667" max="5888" width="4.875" style="44"/>
-    <col min="5889" max="5922" width="4.875" style="44" customWidth="1"/>
-    <col min="5923" max="6144" width="4.875" style="44"/>
-    <col min="6145" max="6178" width="4.875" style="44" customWidth="1"/>
-    <col min="6179" max="6400" width="4.875" style="44"/>
-    <col min="6401" max="6434" width="4.875" style="44" customWidth="1"/>
-    <col min="6435" max="6656" width="4.875" style="44"/>
-    <col min="6657" max="6690" width="4.875" style="44" customWidth="1"/>
-    <col min="6691" max="6912" width="4.875" style="44"/>
-    <col min="6913" max="6946" width="4.875" style="44" customWidth="1"/>
-    <col min="6947" max="7168" width="4.875" style="44"/>
-    <col min="7169" max="7202" width="4.875" style="44" customWidth="1"/>
-    <col min="7203" max="7424" width="4.875" style="44"/>
-    <col min="7425" max="7458" width="4.875" style="44" customWidth="1"/>
-    <col min="7459" max="7680" width="4.875" style="44"/>
-    <col min="7681" max="7714" width="4.875" style="44" customWidth="1"/>
-    <col min="7715" max="7936" width="4.875" style="44"/>
-    <col min="7937" max="7970" width="4.875" style="44" customWidth="1"/>
-    <col min="7971" max="8192" width="4.875" style="44"/>
-    <col min="8193" max="8226" width="4.875" style="44" customWidth="1"/>
-    <col min="8227" max="8448" width="4.875" style="44"/>
-    <col min="8449" max="8482" width="4.875" style="44" customWidth="1"/>
-    <col min="8483" max="8704" width="4.875" style="44"/>
-    <col min="8705" max="8738" width="4.875" style="44" customWidth="1"/>
-    <col min="8739" max="8960" width="4.875" style="44"/>
-    <col min="8961" max="8994" width="4.875" style="44" customWidth="1"/>
-    <col min="8995" max="9216" width="4.875" style="44"/>
-    <col min="9217" max="9250" width="4.875" style="44" customWidth="1"/>
-    <col min="9251" max="9472" width="4.875" style="44"/>
-    <col min="9473" max="9506" width="4.875" style="44" customWidth="1"/>
-    <col min="9507" max="9728" width="4.875" style="44"/>
-    <col min="9729" max="9762" width="4.875" style="44" customWidth="1"/>
-    <col min="9763" max="9984" width="4.875" style="44"/>
-    <col min="9985" max="10018" width="4.875" style="44" customWidth="1"/>
-    <col min="10019" max="10240" width="4.875" style="44"/>
-    <col min="10241" max="10274" width="4.875" style="44" customWidth="1"/>
-    <col min="10275" max="10496" width="4.875" style="44"/>
-    <col min="10497" max="10530" width="4.875" style="44" customWidth="1"/>
-    <col min="10531" max="10752" width="4.875" style="44"/>
-    <col min="10753" max="10786" width="4.875" style="44" customWidth="1"/>
-    <col min="10787" max="11008" width="4.875" style="44"/>
-    <col min="11009" max="11042" width="4.875" style="44" customWidth="1"/>
-    <col min="11043" max="11264" width="4.875" style="44"/>
-    <col min="11265" max="11298" width="4.875" style="44" customWidth="1"/>
-    <col min="11299" max="11520" width="4.875" style="44"/>
-    <col min="11521" max="11554" width="4.875" style="44" customWidth="1"/>
-    <col min="11555" max="11776" width="4.875" style="44"/>
-    <col min="11777" max="11810" width="4.875" style="44" customWidth="1"/>
-    <col min="11811" max="12032" width="4.875" style="44"/>
-    <col min="12033" max="12066" width="4.875" style="44" customWidth="1"/>
-    <col min="12067" max="12288" width="4.875" style="44"/>
-    <col min="12289" max="12322" width="4.875" style="44" customWidth="1"/>
-    <col min="12323" max="12544" width="4.875" style="44"/>
-    <col min="12545" max="12578" width="4.875" style="44" customWidth="1"/>
-    <col min="12579" max="12800" width="4.875" style="44"/>
-    <col min="12801" max="12834" width="4.875" style="44" customWidth="1"/>
-    <col min="12835" max="13056" width="4.875" style="44"/>
-    <col min="13057" max="13090" width="4.875" style="44" customWidth="1"/>
-    <col min="13091" max="13312" width="4.875" style="44"/>
-    <col min="13313" max="13346" width="4.875" style="44" customWidth="1"/>
-    <col min="13347" max="13568" width="4.875" style="44"/>
-    <col min="13569" max="13602" width="4.875" style="44" customWidth="1"/>
-    <col min="13603" max="13824" width="4.875" style="44"/>
-    <col min="13825" max="13858" width="4.875" style="44" customWidth="1"/>
-    <col min="13859" max="14080" width="4.875" style="44"/>
-    <col min="14081" max="14114" width="4.875" style="44" customWidth="1"/>
-    <col min="14115" max="14336" width="4.875" style="44"/>
-    <col min="14337" max="14370" width="4.875" style="44" customWidth="1"/>
-    <col min="14371" max="14592" width="4.875" style="44"/>
-    <col min="14593" max="14626" width="4.875" style="44" customWidth="1"/>
-    <col min="14627" max="14848" width="4.875" style="44"/>
-    <col min="14849" max="14882" width="4.875" style="44" customWidth="1"/>
-    <col min="14883" max="15104" width="4.875" style="44"/>
-    <col min="15105" max="15138" width="4.875" style="44" customWidth="1"/>
-    <col min="15139" max="15360" width="4.875" style="44"/>
-    <col min="15361" max="15394" width="4.875" style="44" customWidth="1"/>
-    <col min="15395" max="15616" width="4.875" style="44"/>
-    <col min="15617" max="15650" width="4.875" style="44" customWidth="1"/>
-    <col min="15651" max="15872" width="4.875" style="44"/>
-    <col min="15873" max="15906" width="4.875" style="44" customWidth="1"/>
-    <col min="15907" max="16128" width="4.875" style="44"/>
-    <col min="16129" max="16162" width="4.875" style="44" customWidth="1"/>
-    <col min="16163" max="16384" width="4.875" style="44"/>
+    <col min="1" max="16" width="4.83203125" style="44" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="63" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="44" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="63" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="44"/>
+    <col min="257" max="290" width="4.83203125" style="44" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="44"/>
+    <col min="513" max="546" width="4.83203125" style="44" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="44"/>
+    <col min="769" max="802" width="4.83203125" style="44" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="44"/>
+    <col min="1025" max="1058" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="44"/>
+    <col min="1281" max="1314" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="44"/>
+    <col min="1537" max="1570" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="44"/>
+    <col min="1793" max="1826" width="4.83203125" style="44" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="44"/>
+    <col min="2049" max="2082" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="44"/>
+    <col min="2305" max="2338" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="44"/>
+    <col min="2561" max="2594" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="44"/>
+    <col min="2817" max="2850" width="4.83203125" style="44" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="44"/>
+    <col min="3073" max="3106" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="44"/>
+    <col min="3329" max="3362" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="44"/>
+    <col min="3585" max="3618" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="44"/>
+    <col min="3841" max="3874" width="4.83203125" style="44" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="44"/>
+    <col min="4097" max="4130" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="44"/>
+    <col min="4353" max="4386" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="44"/>
+    <col min="4609" max="4642" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="44"/>
+    <col min="4865" max="4898" width="4.83203125" style="44" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="44"/>
+    <col min="5121" max="5154" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="44"/>
+    <col min="5377" max="5410" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="44"/>
+    <col min="5633" max="5666" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="44"/>
+    <col min="5889" max="5922" width="4.83203125" style="44" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="44"/>
+    <col min="6145" max="6178" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="44"/>
+    <col min="6401" max="6434" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="44"/>
+    <col min="6657" max="6690" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="44"/>
+    <col min="6913" max="6946" width="4.83203125" style="44" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="44"/>
+    <col min="7169" max="7202" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="44"/>
+    <col min="7425" max="7458" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="44"/>
+    <col min="7681" max="7714" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="44"/>
+    <col min="7937" max="7970" width="4.83203125" style="44" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="44"/>
+    <col min="8193" max="8226" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="44"/>
+    <col min="8449" max="8482" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="44"/>
+    <col min="8705" max="8738" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="44"/>
+    <col min="8961" max="8994" width="4.83203125" style="44" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="44"/>
+    <col min="9217" max="9250" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="44"/>
+    <col min="9473" max="9506" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="44"/>
+    <col min="9729" max="9762" width="4.83203125" style="44" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="44"/>
+    <col min="9985" max="10018" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="44"/>
+    <col min="10241" max="10274" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="44"/>
+    <col min="10497" max="10530" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="44"/>
+    <col min="10753" max="10786" width="4.83203125" style="44" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="44"/>
+    <col min="11009" max="11042" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="44"/>
+    <col min="11265" max="11298" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="44"/>
+    <col min="11521" max="11554" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="44"/>
+    <col min="11777" max="11810" width="4.83203125" style="44" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="44"/>
+    <col min="12033" max="12066" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="44"/>
+    <col min="12289" max="12322" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="44"/>
+    <col min="12545" max="12578" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="44"/>
+    <col min="12801" max="12834" width="4.83203125" style="44" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="44"/>
+    <col min="13057" max="13090" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="44"/>
+    <col min="13313" max="13346" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="44"/>
+    <col min="13569" max="13602" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="44"/>
+    <col min="13825" max="13858" width="4.83203125" style="44" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="44"/>
+    <col min="14081" max="14114" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="44"/>
+    <col min="14337" max="14370" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="44"/>
+    <col min="14593" max="14626" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="44"/>
+    <col min="14849" max="14882" width="4.83203125" style="44" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="44"/>
+    <col min="15105" max="15138" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="44"/>
+    <col min="15361" max="15394" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="44"/>
+    <col min="15617" max="15650" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="44"/>
+    <col min="15873" max="15906" width="4.83203125" style="44" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="44"/>
+    <col min="16129" max="16162" width="4.83203125" style="44" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="44"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="155" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -18576,7 +18566,7 @@
       <c r="AH18" s="51"/>
       <c r="AI18" s="52"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="48"/>
       <c r="B19" s="55"/>
       <c r="C19" s="37"/>
@@ -18650,7 +18640,7 @@
       <c r="AH20" s="51"/>
       <c r="AI20" s="52"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="48"/>
       <c r="B21" s="55"/>
       <c r="C21" s="37"/>
@@ -18994,6 +18984,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19003,14 +19001,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -19031,169 +19021,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -22865,6 +22855,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22874,14 +22872,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22908,169 +22898,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -26447,6 +26437,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26456,14 +26454,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26487,169 +26477,169 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="10.8" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.875" style="14"/>
+    <col min="1" max="16384" width="4.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -30293,6 +30283,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30302,14 +30300,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2F82F-3B52-416A-B8AC-0D20714A909D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11A3EE-3730-48A7-A669-C68DD3AF8330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="75" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -792,108 +792,6 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1011,14 +909,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1029,6 +1020,17 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1083,8 +1085,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6426,10 +6426,10 @@
       <xdr:rowOff>60107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6441,18 +6441,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="0"/>
+          <a:stCxn id="93" idx="3"/>
           <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
+        <a:xfrm flipH="1" flipV="1">
           <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1328744" cy="1363882"/>
+          <a:ext cx="1971681" cy="1078131"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -122759"/>
+            <a:gd name="adj1" fmla="val -11594"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6482,16 +6482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6508,7 +6508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7248525" y="3924300"/>
+          <a:off x="7162800" y="3724275"/>
           <a:ext cx="542925" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -16264,57 +16264,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="112" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="111">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="77">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="113"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16322,53 +16322,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="90" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="111">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="77">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16376,45 +16376,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16451,1062 +16451,1218 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="114" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="117" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="114" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="114" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="115"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="81"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="130">
         <v>1</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
         <v>43578</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="116">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79">
+      <c r="C9" s="117"/>
+      <c r="D9" s="118">
         <v>43805</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="96" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="94" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="95" t="s">
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="94" t="s">
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="87"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="126"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79">
+      <c r="C10" s="117"/>
+      <c r="D10" s="118">
         <v>43895</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="93" t="s">
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="94" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="95" t="s">
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="94" t="s">
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="87"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="88"/>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="85"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="87"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="145"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="87"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="144"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="145"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="146"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="145"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="87"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="145"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="146"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="145"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="87"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="145"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="146"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="145"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="126"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="87"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="145"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="146"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="145"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="126"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="87"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="144"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="145"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="146"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="145"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="126"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="87"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="144"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="145"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="146"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="145"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="126"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="87"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="144"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="145"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="146"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="145"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="126"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="87"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="144"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="145"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="146"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="145"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="126"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="87"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="144"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="145"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="146"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="145"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="126"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="87"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="144"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="145"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="129"/>
+      <c r="AF21" s="145"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="126"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="87"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="144"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="146"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="145"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="126"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="87"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="144"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="146"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="145"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="126"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="87"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="144"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="146"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="145"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="126"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="146"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="145"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="126"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="146"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="145"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="125"/>
+      <c r="AI26" s="126"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="87"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="145"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="146"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="145"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="126"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="144"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="146"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="145"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="126"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="87"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="145"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="146"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="145"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="126"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="87"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="145"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="146"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="145"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="126"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="145"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="145"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="126"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="145"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="146"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="145"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="126"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="145"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="146"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="145"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="126"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17530,162 +17686,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -17842,163 +17842,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -18984,14 +18984,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19001,6 +18993,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -19027,163 +19027,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -22855,14 +22855,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22872,6 +22864,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22904,163 +22904,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -26437,14 +26437,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26454,6 +26446,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26483,163 +26483,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>43895</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -30283,14 +30283,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30300,6 +30292,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57302F9-18EA-4326-BE4C-97F8B9AEE1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11A3EE-3730-48A7-A669-C68DD3AF8330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="75" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -28,15 +28,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -6434,10 +6426,10 @@
       <xdr:rowOff>60107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6449,18 +6441,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="96" idx="0"/>
+          <a:stCxn id="93" idx="3"/>
           <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="10800000">
+        <a:xfrm flipH="1" flipV="1">
           <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1328744" cy="1363882"/>
+          <a:ext cx="1971681" cy="1078131"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -122759"/>
+            <a:gd name="adj1" fmla="val -11594"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6490,16 +6482,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6516,7 +6508,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7248525" y="3924300"/>
+          <a:off x="7162800" y="3724275"/>
           <a:ext cx="542925" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9914,7 +9906,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>プロジェクト照会</a:t>
+              <a:t>プロジェクト検索</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10605,7 +10597,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>WA10203WA</a:t>
+              <a:t>WA10203</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -14948,7 +14940,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>期間内プロジェクト一覧出力バッチ</a:t>
+            <a:t>プロジェクト一覧出力</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11A3EE-3730-48A7-A669-C68DD3AF8330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57302F9-18EA-4326-BE4C-97F8B9AEE1B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="75" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -28,7 +28,15 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6426,10 +6434,10 @@
       <xdr:rowOff>60107</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>100013</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>138114</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -6441,18 +6449,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="93" idx="3"/>
+          <a:stCxn id="96" idx="0"/>
           <a:endCxn id="9" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
+        <a:xfrm rot="10800000">
           <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1971681" cy="1078131"/>
+          <a:ext cx="1328744" cy="1363882"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -11594"/>
+            <a:gd name="adj1" fmla="val -122759"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -6482,16 +6490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6508,7 +6516,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7162800" y="3724275"/>
+          <a:off x="7248525" y="3924300"/>
           <a:ext cx="542925" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9906,7 +9914,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>プロジェクト検索</a:t>
+              <a:t>プロジェクト照会</a:t>
             </a:r>
           </a:p>
         </xdr:txBody>
@@ -10597,7 +10605,7 @@
                 <a:latin typeface="ＭＳ 明朝"/>
                 <a:ea typeface="ＭＳ 明朝"/>
               </a:rPr>
-              <a:t>WA10203</a:t>
+              <a:t>WA10203WA</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -14940,7 +14948,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>プロジェクト一覧出力</a:t>
+            <a:t>期間内プロジェクト一覧出力バッチ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA11A3EE-3730-48A7-A669-C68DD3AF8330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBA622-73B2-45D2-A34F-3B821561B062}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="75" windowWidth="38400" windowHeight="10575" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
@@ -28,12 +28,20 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
   <si>
     <t>PJ名</t>
   </si>
@@ -197,10 +205,6 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>3. プロジェクト一覧出力(A106)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>1. ログイン(A101)</t>
     <phoneticPr fontId="9"/>
   </si>
@@ -247,7 +251,39 @@
     <phoneticPr fontId="9"/>
   </si>
   <si>
-    <t>第１．２版</t>
+    <t>3. プロジェクト一覧出力(A106)</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>未実装処理であることを追記</t>
+    <rPh sb="0" eb="5">
+      <t>ミジッソウショリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1.3版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>第１．３版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -792,6 +828,108 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -909,107 +1047,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1020,17 +1065,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1085,6 +1119,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -15277,6 +15313,184 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38BF7F72-306A-4210-90DE-39C2AE38CECF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="904874" y="1409701"/>
+          <a:ext cx="7743825" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44B0C320-BD8D-48EC-9DEA-2B0F19673574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9791700" y="1924050"/>
+          <a:ext cx="1466850" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2019</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15648,7 +15862,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15662,7 +15876,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="76">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
       <c r="J25" s="76"/>
       <c r="K25" s="76"/>
@@ -16264,57 +16478,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="103" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="84" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="111">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="113"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -16322,53 +16536,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="84" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="111">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="113"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -16376,45 +16590,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="115" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -16451,1218 +16665,1076 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="97">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79">
         <v>43805</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="95" t="s">
+        <v>35</v>
+      </c>
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127" t="s">
-        <v>36</v>
-      </c>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="147" t="s">
+      <c r="B10" s="92" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79">
+        <v>43895</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="93" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="94" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118">
-        <v>43895</v>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="94" t="s">
+        <v>22</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="148" t="s">
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
+    </row>
+    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124" t="s">
-        <v>29</v>
+      <c r="B11" s="92" t="s">
+        <v>40</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127" t="s">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79">
+        <v>44796</v>
+      </c>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124" t="s">
-        <v>22</v>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="95" t="s">
+        <v>39</v>
       </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
-    </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="19"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="146"/>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="94" t="s">
+        <v>42</v>
+      </c>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="144"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="146"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="145"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="146"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="145"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="146"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="145"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="146"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="145"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="144"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="146"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="145"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="144"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="146"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="145"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="144"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="146"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="145"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="146"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="145"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="144"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="146"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="145"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="144"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="146"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="145"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="144"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="146"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="145"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="146"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="145"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="146"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="145"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="145"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="146"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="145"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="144"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="146"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="145"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="144"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="146"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="145"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="144"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="146"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="145"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="144"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="146"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="145"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="144"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="146"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="145"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="146"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="145"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -17686,6 +17758,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -17842,163 +18070,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="155" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -18984,6 +19212,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18993,14 +19229,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -19027,163 +19255,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -19228,7 +19456,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -22855,6 +23083,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -22864,14 +23100,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22904,163 +23132,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -26437,6 +26665,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -26446,14 +26682,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -26474,7 +26702,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -26483,163 +26711,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>43895</v>
+        <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -26684,7 +26912,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -30283,6 +30511,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30292,14 +30528,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBCBE05-D450-4F2D-848C-798E3BB8EB08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3ABE38-216C-408D-9962-A7960C64226D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -846,6 +846,108 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -963,107 +1065,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1074,17 +1083,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1139,6 +1137,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -10527,7 +10527,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA10103</a:t>
+            <a:t>WA10301</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -12531,8 +12531,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7910146" y="7122502"/>
-          <a:ext cx="690196" cy="350227"/>
+          <a:off x="7848600" y="6953250"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="537" y="600"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -12773,8 +12773,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7910146" y="7581167"/>
-          <a:ext cx="690196" cy="353891"/>
+          <a:off x="7848600" y="7400925"/>
+          <a:ext cx="685800" cy="342900"/>
           <a:chOff x="536" y="660"/>
           <a:chExt cx="72" cy="36"/>
         </a:xfrm>
@@ -13228,8 +13228,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2715358" y="7434629"/>
-          <a:ext cx="145073" cy="156063"/>
+          <a:off x="2695575" y="7258050"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -14123,7 +14123,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA10104</a:t>
+            <a:t>WA10302</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -20493,57 +20493,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="103" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="84" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="111">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="113"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -20551,53 +20551,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="84" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="111">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="113"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -20605,45 +20605,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="115" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -20680,1232 +20680,1076 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="97">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79">
         <v>43805</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124" t="s">
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79">
         <v>43895</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124" t="s">
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79">
         <v>44796</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="145" t="s">
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="93" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="127" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127" t="s">
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="94" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124" t="s">
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="147"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="147"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="147"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="147"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="147"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="147"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="147"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="147"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="147"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="147"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="147"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -21929,6 +21773,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22085,163 +22085,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="155" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -23229,6 +23229,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23238,14 +23246,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -23272,163 +23272,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -27100,6 +27100,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -27109,14 +27117,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -27149,163 +27149,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -30682,6 +30682,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30691,14 +30699,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -30718,8 +30718,8 @@
   </sheetPr>
   <dimension ref="A1:AL102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -30728,163 +30728,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -34556,6 +34556,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A2:D2"/>
@@ -34572,7 +34573,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -34605,163 +34605,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -38405,6 +38405,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -38414,14 +38422,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3ABE38-216C-408D-9962-A7960C64226D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CD83A-D206-4753-B857-3FC55B5A63F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6312,8 +6312,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3531060" y="5803938"/>
-          <a:ext cx="7315201" cy="2003913"/>
+          <a:off x="3504683" y="5667657"/>
+          <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
         </a:xfrm>
@@ -9192,8 +9192,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5625612" y="2197345"/>
-          <a:ext cx="1420690" cy="874703"/>
+          <a:off x="5581650" y="2152651"/>
+          <a:ext cx="1409700" cy="852722"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -9697,8 +9697,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2762983" y="3411415"/>
-          <a:ext cx="145073" cy="156064"/>
+          <a:off x="2743200" y="3333750"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -9898,8 +9898,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5622891" y="3809267"/>
-          <a:ext cx="1420691" cy="874702"/>
+          <a:off x="5578929" y="3724275"/>
+          <a:ext cx="1409701" cy="852721"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10203,8 +10203,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6209673" y="5102259"/>
-          <a:ext cx="138793" cy="156063"/>
+          <a:off x="6161315" y="4984296"/>
+          <a:ext cx="138793" cy="152399"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10441,6 +10441,7 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -27139,7 +27140,7 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -34556,6 +34557,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AG1:AI1"/>
@@ -34571,8 +34574,6 @@
     <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3ABE38-216C-408D-9962-A7960C64226D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA850A2F-A803-44F9-A6BF-8AAC3950F83A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,20 +11,20 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="目次" sheetId="22" r:id="rId3"/>
-    <sheet name="1. ログイン(A101)" sheetId="23" r:id="rId4"/>
+    <sheet name="1. 認証(A101)" sheetId="23" r:id="rId4"/>
     <sheet name="2. プロジェクト管理(A102)" sheetId="24" r:id="rId5"/>
     <sheet name="3. 共通(A103)" sheetId="31" r:id="rId6"/>
     <sheet name="4. プロジェクト一覧出力(A106)" sheetId="30" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AO$54</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'4. プロジェクト一覧出力(A106)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$23</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 認証(A101)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. 共通(A103)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'4. プロジェクト一覧出力(A106)'!$1:$5</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>PJ名</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>2. プロジェクト管理(A102)</t>
     <rPh sb="9" eb="11">
       <t>カンリ</t>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>1. ログイン(A101)</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -307,6 +299,13 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. 認証(A101)</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -5863,14 +5862,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>268895</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>102322</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19047</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>14955</xdr:rowOff>
+      <xdr:rowOff>62580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5887,8 +5886,202 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3053126" y="2908534"/>
-          <a:ext cx="863844" cy="498786"/>
+          <a:off x="3031145" y="2893147"/>
+          <a:ext cx="855052" cy="484133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WA10102</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42499</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273297</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="AutoShape 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4318649E-CD95-44CE-B9D1-A10409E25ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3357199" y="2562225"/>
+          <a:ext cx="230798" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157898</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="AutoShape 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610CF7-2B96-4E15-A201-5DD8A46EC61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3472598" y="2028825"/>
+          <a:ext cx="566002" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2928</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4B6C4F-B13E-4548-83FF-C87D96F52D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3015026" y="4263282"/>
+          <a:ext cx="855052" cy="484133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5950,22 +6143,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>42499</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>26380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273297</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257178</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="AutoShape 363">
+        <xdr:cNvPr id="96" name="AutoShape 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4318649E-CD95-44CE-B9D1-A10409E25ED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943B44F9-840F-4FA3-BAE2-A2AEACD9B923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5975,8 +6168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3383576" y="2570285"/>
-          <a:ext cx="230798" cy="235927"/>
+          <a:off x="3341080" y="3932360"/>
+          <a:ext cx="230798" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -6008,115 +6201,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141779</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>175113</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>49090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Text Box 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DC9F4A-870E-4DDA-82C7-E95006399DD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2828193" y="2373923"/>
-          <a:ext cx="687997" cy="188302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>157898</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>143971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="AutoShape 121">
+        <xdr:cNvPr id="97" name="AutoShape 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610CF7-2B96-4E15-A201-5DD8A46EC61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C66650D-4C16-4490-ACDD-B25A18EC3229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="99" idx="0"/>
+          <a:stCxn id="96" idx="0"/>
+          <a:endCxn id="98" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3472598" y="2266950"/>
-          <a:ext cx="585052" cy="247650"/>
+          <a:off x="3456479" y="3377280"/>
+          <a:ext cx="2192" cy="555080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6312,8 +6426,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3531060" y="5803938"/>
-          <a:ext cx="7315201" cy="2003913"/>
+          <a:off x="3504683" y="5667657"/>
+          <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
         </a:xfrm>
@@ -9192,8 +9306,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5625612" y="2197345"/>
-          <a:ext cx="1420690" cy="874703"/>
+          <a:off x="5581650" y="2152651"/>
+          <a:ext cx="1409700" cy="852722"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -9697,8 +9811,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2762983" y="3411415"/>
-          <a:ext cx="145073" cy="156064"/>
+          <a:off x="2743200" y="3333750"/>
+          <a:ext cx="142875" cy="152400"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -9898,8 +10012,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5622891" y="3809267"/>
-          <a:ext cx="1420691" cy="874702"/>
+          <a:off x="5578929" y="3724275"/>
+          <a:ext cx="1409701" cy="852721"/>
           <a:chOff x="5581650" y="2152651"/>
           <a:chExt cx="1409700" cy="852722"/>
         </a:xfrm>
@@ -10203,8 +10317,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6209673" y="5102259"/>
-          <a:ext cx="138793" cy="156063"/>
+          <a:off x="6161315" y="4984296"/>
+          <a:ext cx="138793" cy="152399"/>
           <a:chOff x="671" y="631"/>
           <a:chExt cx="15" cy="16"/>
         </a:xfrm>
@@ -10441,6 +10555,7 @@
           <a:solidFill>
             <a:schemeClr val="tx1"/>
           </a:solidFill>
+          <a:headEnd type="triangle"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -15001,7 +15116,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -15147,8 +15262,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A101</a:t>
           </a:r>
@@ -15166,18 +15281,18 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -19877,7 +19992,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20483,7 +20598,7 @@
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -20792,12 +20907,12 @@
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="84"/>
       <c r="J9" s="95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
@@ -20806,7 +20921,7 @@
       <c r="O9" s="86"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
@@ -20823,7 +20938,7 @@
       <c r="AD9" s="89"/>
       <c r="AE9" s="90"/>
       <c r="AF9" s="95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AG9" s="86"/>
       <c r="AH9" s="86"/>
@@ -20834,7 +20949,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="79">
@@ -20848,7 +20963,7 @@
       <c r="H10" s="83"/>
       <c r="I10" s="84"/>
       <c r="J10" s="95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
@@ -20857,7 +20972,7 @@
       <c r="O10" s="86"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
@@ -20885,7 +21000,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="79">
@@ -20894,12 +21009,12 @@
       <c r="E11" s="80"/>
       <c r="F11" s="81"/>
       <c r="G11" s="93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="84"/>
       <c r="J11" s="94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
@@ -20908,7 +21023,7 @@
       <c r="O11" s="86"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R11" s="89"/>
       <c r="S11" s="89"/>
@@ -20925,7 +21040,7 @@
       <c r="AD11" s="89"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="86"/>
       <c r="AH11" s="86"/>
@@ -22362,7 +22477,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37"/>
       <c r="B7" s="74" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -22438,7 +22553,7 @@
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="37"/>
       <c r="B9" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -22514,7 +22629,7 @@
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="33"/>
@@ -22590,7 +22705,7 @@
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="33"/>
@@ -23473,7 +23588,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -27139,7 +27254,7 @@
   </sheetPr>
   <dimension ref="A1:AL95"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
@@ -27350,7 +27465,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -30929,7 +31044,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -34556,23 +34671,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -34596,7 +34711,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -34806,7 +34921,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA850A2F-A803-44F9-A6BF-8AAC3950F83A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB82B77-F667-48C3-8E39-AA9CD6182FED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -845,108 +845,6 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1064,14 +962,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1082,6 +1073,17 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1136,8 +1138,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -5916,7 +5916,7 @@
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>WA10102</a:t>
+            <a:t>WA10101</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -20608,57 +20608,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="137" t="s">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="118" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="86"/>
+      <c r="AC1" s="112" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="111">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="77">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="112"/>
-      <c r="AI1" s="113"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="79"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -20666,53 +20666,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="118" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="124" t="str">
+      <c r="AB2" s="86"/>
+      <c r="AC2" s="90" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="125"/>
-      <c r="AE2" s="125"/>
-      <c r="AF2" s="126"/>
-      <c r="AG2" s="111">
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="92"/>
+      <c r="AG2" s="77">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="112"/>
-      <c r="AI2" s="113"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="79"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -20720,45 +20720,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="149" t="s">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="146"/>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="112"/>
-      <c r="AI3" s="113"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="84"/>
+      <c r="AB3" s="86"/>
+      <c r="AC3" s="112"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="77"/>
+      <c r="AH3" s="78"/>
+      <c r="AI3" s="79"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -20795,1076 +20795,1232 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="115"/>
-      <c r="D7" s="114" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="114" t="s">
+      <c r="E7" s="82"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="116"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="117" t="s">
+      <c r="H7" s="82"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="116"/>
-      <c r="L7" s="116"/>
-      <c r="M7" s="116"/>
-      <c r="N7" s="116"/>
-      <c r="O7" s="116"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="114" t="s">
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="116"/>
-      <c r="S7" s="116"/>
-      <c r="T7" s="116"/>
-      <c r="U7" s="116"/>
-      <c r="V7" s="116"/>
-      <c r="W7" s="116"/>
-      <c r="X7" s="116"/>
-      <c r="Y7" s="116"/>
-      <c r="Z7" s="116"/>
-      <c r="AA7" s="116"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="116"/>
-      <c r="AD7" s="116"/>
-      <c r="AE7" s="115"/>
-      <c r="AF7" s="114" t="s">
+      <c r="R7" s="82"/>
+      <c r="S7" s="82"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="82"/>
+      <c r="V7" s="82"/>
+      <c r="W7" s="82"/>
+      <c r="X7" s="82"/>
+      <c r="Y7" s="82"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="82"/>
+      <c r="AC7" s="82"/>
+      <c r="AD7" s="82"/>
+      <c r="AE7" s="81"/>
+      <c r="AF7" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="116"/>
-      <c r="AH7" s="116"/>
-      <c r="AI7" s="115"/>
+      <c r="AG7" s="82"/>
+      <c r="AH7" s="82"/>
+      <c r="AI7" s="81"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="97">
+      <c r="B8" s="130">
         <v>1</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="99">
+      <c r="C8" s="131"/>
+      <c r="D8" s="132">
         <v>43578</v>
       </c>
-      <c r="E8" s="100"/>
-      <c r="F8" s="101"/>
-      <c r="G8" s="102" t="s">
+      <c r="E8" s="133"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="103"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105" t="s">
+      <c r="H8" s="136"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="106"/>
-      <c r="L8" s="106"/>
-      <c r="M8" s="106"/>
-      <c r="N8" s="106"/>
-      <c r="O8" s="106"/>
-      <c r="P8" s="107"/>
-      <c r="Q8" s="108" t="s">
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
+      <c r="M8" s="139"/>
+      <c r="N8" s="139"/>
+      <c r="O8" s="139"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="109"/>
-      <c r="S8" s="109"/>
-      <c r="T8" s="109"/>
-      <c r="U8" s="109"/>
-      <c r="V8" s="109"/>
-      <c r="W8" s="109"/>
-      <c r="X8" s="109"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="109"/>
-      <c r="AA8" s="109"/>
-      <c r="AB8" s="109"/>
-      <c r="AC8" s="109"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="110"/>
-      <c r="AF8" s="105" t="s">
+      <c r="R8" s="142"/>
+      <c r="S8" s="142"/>
+      <c r="T8" s="142"/>
+      <c r="U8" s="142"/>
+      <c r="V8" s="142"/>
+      <c r="W8" s="142"/>
+      <c r="X8" s="142"/>
+      <c r="Y8" s="142"/>
+      <c r="Z8" s="142"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
+      <c r="AD8" s="142"/>
+      <c r="AE8" s="143"/>
+      <c r="AF8" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="106"/>
-      <c r="AH8" s="106"/>
-      <c r="AI8" s="107"/>
+      <c r="AG8" s="139"/>
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="77">
+      <c r="B9" s="116">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79">
+      <c r="C9" s="117"/>
+      <c r="D9" s="118">
         <v>43805</v>
       </c>
-      <c r="E9" s="80"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="96" t="s">
+      <c r="E9" s="119"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="83"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="95" t="s">
+      <c r="H9" s="122"/>
+      <c r="I9" s="123"/>
+      <c r="J9" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="94" t="s">
+      <c r="K9" s="125"/>
+      <c r="L9" s="125"/>
+      <c r="M9" s="125"/>
+      <c r="N9" s="125"/>
+      <c r="O9" s="125"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="89"/>
-      <c r="S9" s="89"/>
-      <c r="T9" s="89"/>
-      <c r="U9" s="89"/>
-      <c r="V9" s="89"/>
-      <c r="W9" s="89"/>
-      <c r="X9" s="89"/>
-      <c r="Y9" s="89"/>
-      <c r="Z9" s="89"/>
-      <c r="AA9" s="89"/>
-      <c r="AB9" s="89"/>
-      <c r="AC9" s="89"/>
-      <c r="AD9" s="89"/>
-      <c r="AE9" s="90"/>
-      <c r="AF9" s="95" t="s">
+      <c r="R9" s="128"/>
+      <c r="S9" s="128"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
+      <c r="V9" s="128"/>
+      <c r="W9" s="128"/>
+      <c r="X9" s="128"/>
+      <c r="Y9" s="128"/>
+      <c r="Z9" s="128"/>
+      <c r="AA9" s="128"/>
+      <c r="AB9" s="128"/>
+      <c r="AC9" s="128"/>
+      <c r="AD9" s="128"/>
+      <c r="AE9" s="129"/>
+      <c r="AF9" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
-      <c r="AI9" s="87"/>
+      <c r="AG9" s="125"/>
+      <c r="AH9" s="125"/>
+      <c r="AI9" s="126"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79">
+      <c r="C10" s="117"/>
+      <c r="D10" s="118">
         <v>43895</v>
       </c>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="93" t="s">
+      <c r="E10" s="119"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="83"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="95" t="s">
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="94" t="s">
+      <c r="K10" s="125"/>
+      <c r="L10" s="125"/>
+      <c r="M10" s="125"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="126"/>
+      <c r="Q10" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="90"/>
-      <c r="AF10" s="95" t="s">
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
+      <c r="V10" s="128"/>
+      <c r="W10" s="128"/>
+      <c r="X10" s="128"/>
+      <c r="Y10" s="128"/>
+      <c r="Z10" s="128"/>
+      <c r="AA10" s="128"/>
+      <c r="AB10" s="128"/>
+      <c r="AC10" s="128"/>
+      <c r="AD10" s="128"/>
+      <c r="AE10" s="129"/>
+      <c r="AF10" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
-      <c r="AI10" s="87"/>
+      <c r="AG10" s="125"/>
+      <c r="AH10" s="125"/>
+      <c r="AI10" s="126"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="78"/>
-      <c r="D11" s="79">
+      <c r="C11" s="117"/>
+      <c r="D11" s="118">
         <v>44796</v>
       </c>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="93" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="84"/>
-      <c r="J11" s="94" t="s">
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="94" t="s">
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="125"/>
+      <c r="N11" s="125"/>
+      <c r="O11" s="125"/>
+      <c r="P11" s="126"/>
+      <c r="Q11" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="89"/>
-      <c r="S11" s="89"/>
-      <c r="T11" s="89"/>
-      <c r="U11" s="89"/>
-      <c r="V11" s="89"/>
-      <c r="W11" s="89"/>
-      <c r="X11" s="89"/>
-      <c r="Y11" s="89"/>
-      <c r="Z11" s="89"/>
-      <c r="AA11" s="89"/>
-      <c r="AB11" s="89"/>
-      <c r="AC11" s="89"/>
-      <c r="AD11" s="89"/>
-      <c r="AE11" s="90"/>
-      <c r="AF11" s="95" t="s">
+      <c r="R11" s="128"/>
+      <c r="S11" s="128"/>
+      <c r="T11" s="128"/>
+      <c r="U11" s="128"/>
+      <c r="V11" s="128"/>
+      <c r="W11" s="128"/>
+      <c r="X11" s="128"/>
+      <c r="Y11" s="128"/>
+      <c r="Z11" s="128"/>
+      <c r="AA11" s="128"/>
+      <c r="AB11" s="128"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="128"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="124" t="s">
         <v>37</v>
       </c>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
-      <c r="AI11" s="87"/>
+      <c r="AG11" s="125"/>
+      <c r="AH11" s="125"/>
+      <c r="AI11" s="126"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="84"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="88"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="89"/>
-      <c r="T12" s="89"/>
-      <c r="U12" s="89"/>
-      <c r="V12" s="89"/>
-      <c r="W12" s="89"/>
-      <c r="X12" s="89"/>
-      <c r="Y12" s="89"/>
-      <c r="Z12" s="89"/>
-      <c r="AA12" s="89"/>
-      <c r="AB12" s="89"/>
-      <c r="AC12" s="89"/>
-      <c r="AD12" s="89"/>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="85"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
-      <c r="AI12" s="87"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="122"/>
+      <c r="I12" s="123"/>
+      <c r="J12" s="147"/>
+      <c r="K12" s="125"/>
+      <c r="L12" s="125"/>
+      <c r="M12" s="125"/>
+      <c r="N12" s="125"/>
+      <c r="O12" s="125"/>
+      <c r="P12" s="126"/>
+      <c r="Q12" s="148"/>
+      <c r="R12" s="128"/>
+      <c r="S12" s="128"/>
+      <c r="T12" s="128"/>
+      <c r="U12" s="128"/>
+      <c r="V12" s="128"/>
+      <c r="W12" s="128"/>
+      <c r="X12" s="128"/>
+      <c r="Y12" s="128"/>
+      <c r="Z12" s="128"/>
+      <c r="AA12" s="128"/>
+      <c r="AB12" s="128"/>
+      <c r="AC12" s="128"/>
+      <c r="AD12" s="128"/>
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="147"/>
+      <c r="AG12" s="125"/>
+      <c r="AH12" s="125"/>
+      <c r="AI12" s="126"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="88"/>
-      <c r="R13" s="89"/>
-      <c r="S13" s="89"/>
-      <c r="T13" s="89"/>
-      <c r="U13" s="89"/>
-      <c r="V13" s="89"/>
-      <c r="W13" s="89"/>
-      <c r="X13" s="89"/>
-      <c r="Y13" s="89"/>
-      <c r="Z13" s="89"/>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="89"/>
-      <c r="AC13" s="89"/>
-      <c r="AD13" s="89"/>
-      <c r="AE13" s="90"/>
-      <c r="AF13" s="85"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
-      <c r="AI13" s="87"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="147"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="125"/>
+      <c r="M13" s="125"/>
+      <c r="N13" s="125"/>
+      <c r="O13" s="125"/>
+      <c r="P13" s="126"/>
+      <c r="Q13" s="148"/>
+      <c r="R13" s="128"/>
+      <c r="S13" s="128"/>
+      <c r="T13" s="128"/>
+      <c r="U13" s="128"/>
+      <c r="V13" s="128"/>
+      <c r="W13" s="128"/>
+      <c r="X13" s="128"/>
+      <c r="Y13" s="128"/>
+      <c r="Z13" s="128"/>
+      <c r="AA13" s="128"/>
+      <c r="AB13" s="128"/>
+      <c r="AC13" s="128"/>
+      <c r="AD13" s="128"/>
+      <c r="AE13" s="129"/>
+      <c r="AF13" s="147"/>
+      <c r="AG13" s="125"/>
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="126"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="89"/>
-      <c r="S14" s="89"/>
-      <c r="T14" s="89"/>
-      <c r="U14" s="89"/>
-      <c r="V14" s="89"/>
-      <c r="W14" s="89"/>
-      <c r="X14" s="89"/>
-      <c r="Y14" s="89"/>
-      <c r="Z14" s="89"/>
-      <c r="AA14" s="89"/>
-      <c r="AB14" s="89"/>
-      <c r="AC14" s="89"/>
-      <c r="AD14" s="89"/>
-      <c r="AE14" s="90"/>
-      <c r="AF14" s="85"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
-      <c r="AI14" s="87"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="147"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="125"/>
+      <c r="M14" s="125"/>
+      <c r="N14" s="125"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="148"/>
+      <c r="R14" s="128"/>
+      <c r="S14" s="128"/>
+      <c r="T14" s="128"/>
+      <c r="U14" s="128"/>
+      <c r="V14" s="128"/>
+      <c r="W14" s="128"/>
+      <c r="X14" s="128"/>
+      <c r="Y14" s="128"/>
+      <c r="Z14" s="128"/>
+      <c r="AA14" s="128"/>
+      <c r="AB14" s="128"/>
+      <c r="AC14" s="128"/>
+      <c r="AD14" s="128"/>
+      <c r="AE14" s="129"/>
+      <c r="AF14" s="147"/>
+      <c r="AG14" s="125"/>
+      <c r="AH14" s="125"/>
+      <c r="AI14" s="126"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="89"/>
-      <c r="S15" s="89"/>
-      <c r="T15" s="89"/>
-      <c r="U15" s="89"/>
-      <c r="V15" s="89"/>
-      <c r="W15" s="89"/>
-      <c r="X15" s="89"/>
-      <c r="Y15" s="89"/>
-      <c r="Z15" s="89"/>
-      <c r="AA15" s="89"/>
-      <c r="AB15" s="89"/>
-      <c r="AC15" s="89"/>
-      <c r="AD15" s="89"/>
-      <c r="AE15" s="90"/>
-      <c r="AF15" s="85"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
-      <c r="AI15" s="87"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="125"/>
+      <c r="M15" s="125"/>
+      <c r="N15" s="125"/>
+      <c r="O15" s="125"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="148"/>
+      <c r="R15" s="128"/>
+      <c r="S15" s="128"/>
+      <c r="T15" s="128"/>
+      <c r="U15" s="128"/>
+      <c r="V15" s="128"/>
+      <c r="W15" s="128"/>
+      <c r="X15" s="128"/>
+      <c r="Y15" s="128"/>
+      <c r="Z15" s="128"/>
+      <c r="AA15" s="128"/>
+      <c r="AB15" s="128"/>
+      <c r="AC15" s="128"/>
+      <c r="AD15" s="128"/>
+      <c r="AE15" s="129"/>
+      <c r="AF15" s="147"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="125"/>
+      <c r="AI15" s="126"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="89"/>
-      <c r="S16" s="89"/>
-      <c r="T16" s="89"/>
-      <c r="U16" s="89"/>
-      <c r="V16" s="89"/>
-      <c r="W16" s="89"/>
-      <c r="X16" s="89"/>
-      <c r="Y16" s="89"/>
-      <c r="Z16" s="89"/>
-      <c r="AA16" s="89"/>
-      <c r="AB16" s="89"/>
-      <c r="AC16" s="89"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="90"/>
-      <c r="AF16" s="85"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
-      <c r="AI16" s="87"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="146"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="123"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="125"/>
+      <c r="L16" s="125"/>
+      <c r="M16" s="125"/>
+      <c r="N16" s="125"/>
+      <c r="O16" s="125"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="148"/>
+      <c r="R16" s="128"/>
+      <c r="S16" s="128"/>
+      <c r="T16" s="128"/>
+      <c r="U16" s="128"/>
+      <c r="V16" s="128"/>
+      <c r="W16" s="128"/>
+      <c r="X16" s="128"/>
+      <c r="Y16" s="128"/>
+      <c r="Z16" s="128"/>
+      <c r="AA16" s="128"/>
+      <c r="AB16" s="128"/>
+      <c r="AC16" s="128"/>
+      <c r="AD16" s="128"/>
+      <c r="AE16" s="129"/>
+      <c r="AF16" s="147"/>
+      <c r="AG16" s="125"/>
+      <c r="AH16" s="125"/>
+      <c r="AI16" s="126"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="83"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="88"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="89"/>
-      <c r="AD17" s="89"/>
-      <c r="AE17" s="90"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
-      <c r="AI17" s="87"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="147"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="125"/>
+      <c r="M17" s="125"/>
+      <c r="N17" s="125"/>
+      <c r="O17" s="125"/>
+      <c r="P17" s="126"/>
+      <c r="Q17" s="148"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="129"/>
+      <c r="AF17" s="147"/>
+      <c r="AG17" s="125"/>
+      <c r="AH17" s="125"/>
+      <c r="AI17" s="126"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="83"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="89"/>
-      <c r="S18" s="89"/>
-      <c r="T18" s="89"/>
-      <c r="U18" s="89"/>
-      <c r="V18" s="89"/>
-      <c r="W18" s="89"/>
-      <c r="X18" s="89"/>
-      <c r="Y18" s="89"/>
-      <c r="Z18" s="89"/>
-      <c r="AA18" s="89"/>
-      <c r="AB18" s="89"/>
-      <c r="AC18" s="89"/>
-      <c r="AD18" s="89"/>
-      <c r="AE18" s="90"/>
-      <c r="AF18" s="85"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
-      <c r="AI18" s="87"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="146"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="125"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="148"/>
+      <c r="R18" s="128"/>
+      <c r="S18" s="128"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="128"/>
+      <c r="W18" s="128"/>
+      <c r="X18" s="128"/>
+      <c r="Y18" s="128"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="128"/>
+      <c r="AB18" s="128"/>
+      <c r="AC18" s="128"/>
+      <c r="AD18" s="128"/>
+      <c r="AE18" s="129"/>
+      <c r="AF18" s="147"/>
+      <c r="AG18" s="125"/>
+      <c r="AH18" s="125"/>
+      <c r="AI18" s="126"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="89"/>
-      <c r="S19" s="89"/>
-      <c r="T19" s="89"/>
-      <c r="U19" s="89"/>
-      <c r="V19" s="89"/>
-      <c r="W19" s="89"/>
-      <c r="X19" s="89"/>
-      <c r="Y19" s="89"/>
-      <c r="Z19" s="89"/>
-      <c r="AA19" s="89"/>
-      <c r="AB19" s="89"/>
-      <c r="AC19" s="89"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="90"/>
-      <c r="AF19" s="85"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
-      <c r="AI19" s="87"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="123"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="125"/>
+      <c r="L19" s="125"/>
+      <c r="M19" s="125"/>
+      <c r="N19" s="125"/>
+      <c r="O19" s="125"/>
+      <c r="P19" s="126"/>
+      <c r="Q19" s="148"/>
+      <c r="R19" s="128"/>
+      <c r="S19" s="128"/>
+      <c r="T19" s="128"/>
+      <c r="U19" s="128"/>
+      <c r="V19" s="128"/>
+      <c r="W19" s="128"/>
+      <c r="X19" s="128"/>
+      <c r="Y19" s="128"/>
+      <c r="Z19" s="128"/>
+      <c r="AA19" s="128"/>
+      <c r="AB19" s="128"/>
+      <c r="AC19" s="128"/>
+      <c r="AD19" s="128"/>
+      <c r="AE19" s="129"/>
+      <c r="AF19" s="147"/>
+      <c r="AG19" s="125"/>
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="126"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="88"/>
-      <c r="R20" s="89"/>
-      <c r="S20" s="89"/>
-      <c r="T20" s="89"/>
-      <c r="U20" s="89"/>
-      <c r="V20" s="89"/>
-      <c r="W20" s="89"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="89"/>
-      <c r="AD20" s="89"/>
-      <c r="AE20" s="90"/>
-      <c r="AF20" s="85"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
-      <c r="AI20" s="87"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="146"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="125"/>
+      <c r="M20" s="125"/>
+      <c r="N20" s="125"/>
+      <c r="O20" s="125"/>
+      <c r="P20" s="126"/>
+      <c r="Q20" s="148"/>
+      <c r="R20" s="128"/>
+      <c r="S20" s="128"/>
+      <c r="T20" s="128"/>
+      <c r="U20" s="128"/>
+      <c r="V20" s="128"/>
+      <c r="W20" s="128"/>
+      <c r="X20" s="128"/>
+      <c r="Y20" s="128"/>
+      <c r="Z20" s="128"/>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="128"/>
+      <c r="AC20" s="128"/>
+      <c r="AD20" s="128"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="147"/>
+      <c r="AG20" s="125"/>
+      <c r="AH20" s="125"/>
+      <c r="AI20" s="126"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="88"/>
-      <c r="R21" s="89"/>
-      <c r="S21" s="89"/>
-      <c r="T21" s="89"/>
-      <c r="U21" s="89"/>
-      <c r="V21" s="89"/>
-      <c r="W21" s="89"/>
-      <c r="X21" s="89"/>
-      <c r="Y21" s="89"/>
-      <c r="Z21" s="89"/>
-      <c r="AA21" s="89"/>
-      <c r="AB21" s="89"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="90"/>
-      <c r="AF21" s="85"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
-      <c r="AI21" s="87"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="118"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="146"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="125"/>
+      <c r="M21" s="125"/>
+      <c r="N21" s="125"/>
+      <c r="O21" s="125"/>
+      <c r="P21" s="126"/>
+      <c r="Q21" s="148"/>
+      <c r="R21" s="128"/>
+      <c r="S21" s="128"/>
+      <c r="T21" s="128"/>
+      <c r="U21" s="128"/>
+      <c r="V21" s="128"/>
+      <c r="W21" s="128"/>
+      <c r="X21" s="128"/>
+      <c r="Y21" s="128"/>
+      <c r="Z21" s="128"/>
+      <c r="AA21" s="128"/>
+      <c r="AB21" s="128"/>
+      <c r="AC21" s="128"/>
+      <c r="AD21" s="128"/>
+      <c r="AE21" s="129"/>
+      <c r="AF21" s="147"/>
+      <c r="AG21" s="125"/>
+      <c r="AH21" s="125"/>
+      <c r="AI21" s="126"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="83"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="88"/>
-      <c r="R22" s="89"/>
-      <c r="S22" s="89"/>
-      <c r="T22" s="89"/>
-      <c r="U22" s="89"/>
-      <c r="V22" s="89"/>
-      <c r="W22" s="89"/>
-      <c r="X22" s="89"/>
-      <c r="Y22" s="89"/>
-      <c r="Z22" s="89"/>
-      <c r="AA22" s="89"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="89"/>
-      <c r="AD22" s="89"/>
-      <c r="AE22" s="90"/>
-      <c r="AF22" s="85"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
-      <c r="AI22" s="87"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="146"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="125"/>
+      <c r="L22" s="125"/>
+      <c r="M22" s="125"/>
+      <c r="N22" s="125"/>
+      <c r="O22" s="125"/>
+      <c r="P22" s="126"/>
+      <c r="Q22" s="148"/>
+      <c r="R22" s="128"/>
+      <c r="S22" s="128"/>
+      <c r="T22" s="128"/>
+      <c r="U22" s="128"/>
+      <c r="V22" s="128"/>
+      <c r="W22" s="128"/>
+      <c r="X22" s="128"/>
+      <c r="Y22" s="128"/>
+      <c r="Z22" s="128"/>
+      <c r="AA22" s="128"/>
+      <c r="AB22" s="128"/>
+      <c r="AC22" s="128"/>
+      <c r="AD22" s="128"/>
+      <c r="AE22" s="129"/>
+      <c r="AF22" s="147"/>
+      <c r="AG22" s="125"/>
+      <c r="AH22" s="125"/>
+      <c r="AI22" s="126"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="84"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="88"/>
-      <c r="R23" s="89"/>
-      <c r="S23" s="89"/>
-      <c r="T23" s="89"/>
-      <c r="U23" s="89"/>
-      <c r="V23" s="89"/>
-      <c r="W23" s="89"/>
-      <c r="X23" s="89"/>
-      <c r="Y23" s="89"/>
-      <c r="Z23" s="89"/>
-      <c r="AA23" s="89"/>
-      <c r="AB23" s="89"/>
-      <c r="AC23" s="89"/>
-      <c r="AD23" s="89"/>
-      <c r="AE23" s="90"/>
-      <c r="AF23" s="85"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
-      <c r="AI23" s="87"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="146"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="125"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="125"/>
+      <c r="O23" s="125"/>
+      <c r="P23" s="126"/>
+      <c r="Q23" s="148"/>
+      <c r="R23" s="128"/>
+      <c r="S23" s="128"/>
+      <c r="T23" s="128"/>
+      <c r="U23" s="128"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="128"/>
+      <c r="X23" s="128"/>
+      <c r="Y23" s="128"/>
+      <c r="Z23" s="128"/>
+      <c r="AA23" s="128"/>
+      <c r="AB23" s="128"/>
+      <c r="AC23" s="128"/>
+      <c r="AD23" s="128"/>
+      <c r="AE23" s="129"/>
+      <c r="AF23" s="147"/>
+      <c r="AG23" s="125"/>
+      <c r="AH23" s="125"/>
+      <c r="AI23" s="126"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="88"/>
-      <c r="R24" s="89"/>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
-      <c r="V24" s="89"/>
-      <c r="W24" s="89"/>
-      <c r="X24" s="89"/>
-      <c r="Y24" s="89"/>
-      <c r="Z24" s="89"/>
-      <c r="AA24" s="89"/>
-      <c r="AB24" s="89"/>
-      <c r="AC24" s="89"/>
-      <c r="AD24" s="89"/>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="85"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
-      <c r="AI24" s="87"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="125"/>
+      <c r="M24" s="125"/>
+      <c r="N24" s="125"/>
+      <c r="O24" s="125"/>
+      <c r="P24" s="126"/>
+      <c r="Q24" s="148"/>
+      <c r="R24" s="128"/>
+      <c r="S24" s="128"/>
+      <c r="T24" s="128"/>
+      <c r="U24" s="128"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="128"/>
+      <c r="X24" s="128"/>
+      <c r="Y24" s="128"/>
+      <c r="Z24" s="128"/>
+      <c r="AA24" s="128"/>
+      <c r="AB24" s="128"/>
+      <c r="AC24" s="128"/>
+      <c r="AD24" s="128"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="147"/>
+      <c r="AG24" s="125"/>
+      <c r="AH24" s="125"/>
+      <c r="AI24" s="126"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="84"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="88"/>
-      <c r="R25" s="89"/>
-      <c r="S25" s="89"/>
-      <c r="T25" s="89"/>
-      <c r="U25" s="89"/>
-      <c r="V25" s="89"/>
-      <c r="W25" s="89"/>
-      <c r="X25" s="89"/>
-      <c r="Y25" s="89"/>
-      <c r="Z25" s="89"/>
-      <c r="AA25" s="89"/>
-      <c r="AB25" s="89"/>
-      <c r="AC25" s="89"/>
-      <c r="AD25" s="89"/>
-      <c r="AE25" s="90"/>
-      <c r="AF25" s="85"/>
-      <c r="AG25" s="86"/>
-      <c r="AH25" s="86"/>
-      <c r="AI25" s="87"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="146"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="123"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="125"/>
+      <c r="L25" s="125"/>
+      <c r="M25" s="125"/>
+      <c r="N25" s="125"/>
+      <c r="O25" s="125"/>
+      <c r="P25" s="126"/>
+      <c r="Q25" s="148"/>
+      <c r="R25" s="128"/>
+      <c r="S25" s="128"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="128"/>
+      <c r="V25" s="128"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="128"/>
+      <c r="Y25" s="128"/>
+      <c r="Z25" s="128"/>
+      <c r="AA25" s="128"/>
+      <c r="AB25" s="128"/>
+      <c r="AC25" s="128"/>
+      <c r="AD25" s="128"/>
+      <c r="AE25" s="129"/>
+      <c r="AF25" s="147"/>
+      <c r="AG25" s="125"/>
+      <c r="AH25" s="125"/>
+      <c r="AI25" s="126"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="88"/>
-      <c r="R26" s="89"/>
-      <c r="S26" s="89"/>
-      <c r="T26" s="89"/>
-      <c r="U26" s="89"/>
-      <c r="V26" s="89"/>
-      <c r="W26" s="89"/>
-      <c r="X26" s="89"/>
-      <c r="Y26" s="89"/>
-      <c r="Z26" s="89"/>
-      <c r="AA26" s="89"/>
-      <c r="AB26" s="89"/>
-      <c r="AC26" s="89"/>
-      <c r="AD26" s="89"/>
-      <c r="AE26" s="90"/>
-      <c r="AF26" s="85"/>
-      <c r="AG26" s="86"/>
-      <c r="AH26" s="86"/>
-      <c r="AI26" s="87"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="119"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="125"/>
+      <c r="M26" s="125"/>
+      <c r="N26" s="125"/>
+      <c r="O26" s="125"/>
+      <c r="P26" s="126"/>
+      <c r="Q26" s="148"/>
+      <c r="R26" s="128"/>
+      <c r="S26" s="128"/>
+      <c r="T26" s="128"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="128"/>
+      <c r="W26" s="128"/>
+      <c r="X26" s="128"/>
+      <c r="Y26" s="128"/>
+      <c r="Z26" s="128"/>
+      <c r="AA26" s="128"/>
+      <c r="AB26" s="128"/>
+      <c r="AC26" s="128"/>
+      <c r="AD26" s="128"/>
+      <c r="AE26" s="129"/>
+      <c r="AF26" s="147"/>
+      <c r="AG26" s="125"/>
+      <c r="AH26" s="125"/>
+      <c r="AI26" s="126"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="82"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="87"/>
-      <c r="Q27" s="88"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="89"/>
-      <c r="T27" s="89"/>
-      <c r="U27" s="89"/>
-      <c r="V27" s="89"/>
-      <c r="W27" s="89"/>
-      <c r="X27" s="89"/>
-      <c r="Y27" s="89"/>
-      <c r="Z27" s="89"/>
-      <c r="AA27" s="89"/>
-      <c r="AB27" s="89"/>
-      <c r="AC27" s="89"/>
-      <c r="AD27" s="89"/>
-      <c r="AE27" s="90"/>
-      <c r="AF27" s="85"/>
-      <c r="AG27" s="86"/>
-      <c r="AH27" s="86"/>
-      <c r="AI27" s="87"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="118"/>
+      <c r="E27" s="119"/>
+      <c r="F27" s="120"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="147"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="125"/>
+      <c r="M27" s="125"/>
+      <c r="N27" s="125"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="148"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="129"/>
+      <c r="AF27" s="147"/>
+      <c r="AG27" s="125"/>
+      <c r="AH27" s="125"/>
+      <c r="AI27" s="126"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="87"/>
-      <c r="Q28" s="88"/>
-      <c r="R28" s="89"/>
-      <c r="S28" s="89"/>
-      <c r="T28" s="89"/>
-      <c r="U28" s="89"/>
-      <c r="V28" s="89"/>
-      <c r="W28" s="89"/>
-      <c r="X28" s="89"/>
-      <c r="Y28" s="89"/>
-      <c r="Z28" s="89"/>
-      <c r="AA28" s="89"/>
-      <c r="AB28" s="89"/>
-      <c r="AC28" s="89"/>
-      <c r="AD28" s="89"/>
-      <c r="AE28" s="90"/>
-      <c r="AF28" s="85"/>
-      <c r="AG28" s="86"/>
-      <c r="AH28" s="86"/>
-      <c r="AI28" s="87"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="120"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="147"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="125"/>
+      <c r="M28" s="125"/>
+      <c r="N28" s="125"/>
+      <c r="O28" s="125"/>
+      <c r="P28" s="126"/>
+      <c r="Q28" s="148"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="129"/>
+      <c r="AF28" s="147"/>
+      <c r="AG28" s="125"/>
+      <c r="AH28" s="125"/>
+      <c r="AI28" s="126"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="84"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
-      <c r="Q29" s="88"/>
-      <c r="R29" s="89"/>
-      <c r="S29" s="89"/>
-      <c r="T29" s="89"/>
-      <c r="U29" s="89"/>
-      <c r="V29" s="89"/>
-      <c r="W29" s="89"/>
-      <c r="X29" s="89"/>
-      <c r="Y29" s="89"/>
-      <c r="Z29" s="89"/>
-      <c r="AA29" s="89"/>
-      <c r="AB29" s="89"/>
-      <c r="AC29" s="89"/>
-      <c r="AD29" s="89"/>
-      <c r="AE29" s="90"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-      <c r="AI29" s="87"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="120"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="122"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="125"/>
+      <c r="P29" s="126"/>
+      <c r="Q29" s="148"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="129"/>
+      <c r="AF29" s="147"/>
+      <c r="AG29" s="125"/>
+      <c r="AH29" s="125"/>
+      <c r="AI29" s="126"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="84"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="87"/>
-      <c r="Q30" s="88"/>
-      <c r="R30" s="89"/>
-      <c r="S30" s="89"/>
-      <c r="T30" s="89"/>
-      <c r="U30" s="89"/>
-      <c r="V30" s="89"/>
-      <c r="W30" s="89"/>
-      <c r="X30" s="89"/>
-      <c r="Y30" s="89"/>
-      <c r="Z30" s="89"/>
-      <c r="AA30" s="89"/>
-      <c r="AB30" s="89"/>
-      <c r="AC30" s="89"/>
-      <c r="AD30" s="89"/>
-      <c r="AE30" s="90"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="86"/>
-      <c r="AH30" s="86"/>
-      <c r="AI30" s="87"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="119"/>
+      <c r="F30" s="120"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="125"/>
+      <c r="P30" s="126"/>
+      <c r="Q30" s="148"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="129"/>
+      <c r="AF30" s="147"/>
+      <c r="AG30" s="125"/>
+      <c r="AH30" s="125"/>
+      <c r="AI30" s="126"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="82"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="84"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="87"/>
-      <c r="Q31" s="88"/>
-      <c r="R31" s="89"/>
-      <c r="S31" s="89"/>
-      <c r="T31" s="89"/>
-      <c r="U31" s="89"/>
-      <c r="V31" s="89"/>
-      <c r="W31" s="89"/>
-      <c r="X31" s="89"/>
-      <c r="Y31" s="89"/>
-      <c r="Z31" s="89"/>
-      <c r="AA31" s="89"/>
-      <c r="AB31" s="89"/>
-      <c r="AC31" s="89"/>
-      <c r="AD31" s="89"/>
-      <c r="AE31" s="90"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="86"/>
-      <c r="AI31" s="87"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="119"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="146"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="125"/>
+      <c r="P31" s="126"/>
+      <c r="Q31" s="148"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="129"/>
+      <c r="AF31" s="147"/>
+      <c r="AG31" s="125"/>
+      <c r="AH31" s="125"/>
+      <c r="AI31" s="126"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="84"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="87"/>
-      <c r="Q32" s="88"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="89"/>
-      <c r="AC32" s="89"/>
-      <c r="AD32" s="89"/>
-      <c r="AE32" s="90"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="86"/>
-      <c r="AH32" s="86"/>
-      <c r="AI32" s="87"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="122"/>
+      <c r="I32" s="123"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="125"/>
+      <c r="P32" s="126"/>
+      <c r="Q32" s="148"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="129"/>
+      <c r="AF32" s="147"/>
+      <c r="AG32" s="125"/>
+      <c r="AH32" s="125"/>
+      <c r="AI32" s="126"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="84"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="87"/>
-      <c r="Q33" s="88"/>
-      <c r="R33" s="89"/>
-      <c r="S33" s="89"/>
-      <c r="T33" s="89"/>
-      <c r="U33" s="89"/>
-      <c r="V33" s="89"/>
-      <c r="W33" s="89"/>
-      <c r="X33" s="89"/>
-      <c r="Y33" s="89"/>
-      <c r="Z33" s="89"/>
-      <c r="AA33" s="89"/>
-      <c r="AB33" s="89"/>
-      <c r="AC33" s="89"/>
-      <c r="AD33" s="89"/>
-      <c r="AE33" s="90"/>
-      <c r="AF33" s="85"/>
-      <c r="AG33" s="86"/>
-      <c r="AH33" s="86"/>
-      <c r="AI33" s="87"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="118"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="125"/>
+      <c r="P33" s="126"/>
+      <c r="Q33" s="148"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="129"/>
+      <c r="AF33" s="147"/>
+      <c r="AG33" s="125"/>
+      <c r="AH33" s="125"/>
+      <c r="AI33" s="126"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -21888,162 +22044,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22200,163 +22200,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="128" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="150" t="str">
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="96"/>
+      <c r="S1" s="155" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="138"/>
-      <c r="U1" s="138"/>
-      <c r="V1" s="138"/>
-      <c r="W1" s="138"/>
-      <c r="X1" s="138"/>
-      <c r="Y1" s="138"/>
-      <c r="Z1" s="139"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104"/>
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104"/>
+      <c r="Z1" s="105"/>
+      <c r="AA1" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="131"/>
-      <c r="P2" s="132"/>
-      <c r="Q2" s="132"/>
-      <c r="R2" s="133"/>
-      <c r="S2" s="140"/>
-      <c r="T2" s="141"/>
-      <c r="U2" s="141"/>
-      <c r="V2" s="141"/>
-      <c r="W2" s="141"/>
-      <c r="X2" s="141"/>
-      <c r="Y2" s="141"/>
-      <c r="Z2" s="142"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="107"/>
+      <c r="U2" s="107"/>
+      <c r="V2" s="107"/>
+      <c r="W2" s="107"/>
+      <c r="X2" s="107"/>
+      <c r="Y2" s="107"/>
+      <c r="Z2" s="108"/>
+      <c r="AA2" s="153" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="134"/>
-      <c r="P3" s="135"/>
-      <c r="Q3" s="135"/>
-      <c r="R3" s="136"/>
-      <c r="S3" s="143"/>
-      <c r="T3" s="144"/>
-      <c r="U3" s="144"/>
-      <c r="V3" s="144"/>
-      <c r="W3" s="144"/>
-      <c r="X3" s="144"/>
-      <c r="Y3" s="144"/>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="151"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="100"/>
+      <c r="P3" s="101"/>
+      <c r="Q3" s="101"/>
+      <c r="R3" s="102"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="110"/>
+      <c r="V3" s="110"/>
+      <c r="W3" s="110"/>
+      <c r="X3" s="110"/>
+      <c r="Y3" s="110"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="153"/>
+      <c r="AB3" s="154"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -23344,14 +23344,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23361,6 +23353,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -23377,8 +23377,8 @@
   </sheetPr>
   <dimension ref="A1:AL102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -23387,163 +23387,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -27215,14 +27215,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -27232,6 +27224,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -27264,163 +27264,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -30797,14 +30797,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30814,6 +30806,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -30834,7 +30834,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AG28" sqref="AG28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -30843,163 +30843,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -34671,14 +34671,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -34688,6 +34680,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -34720,163 +34720,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="121" t="str">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="123"/>
-      <c r="O1" s="156" t="s">
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="158"/>
-      <c r="S1" s="165" t="str">
+      <c r="P1" s="159"/>
+      <c r="Q1" s="159"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="166"/>
-      <c r="U1" s="166"/>
-      <c r="V1" s="166"/>
-      <c r="W1" s="166"/>
-      <c r="X1" s="166"/>
-      <c r="Y1" s="166"/>
-      <c r="Z1" s="167"/>
-      <c r="AA1" s="151" t="s">
+      <c r="T1" s="168"/>
+      <c r="U1" s="168"/>
+      <c r="V1" s="168"/>
+      <c r="W1" s="168"/>
+      <c r="X1" s="168"/>
+      <c r="Y1" s="168"/>
+      <c r="Z1" s="169"/>
+      <c r="AA1" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="152"/>
-      <c r="AC1" s="146" t="str">
+      <c r="AB1" s="154"/>
+      <c r="AC1" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="147"/>
-      <c r="AE1" s="147"/>
-      <c r="AF1" s="148"/>
-      <c r="AG1" s="153">
+      <c r="AD1" s="113"/>
+      <c r="AE1" s="113"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="154"/>
-      <c r="AI1" s="155"/>
+      <c r="AH1" s="151"/>
+      <c r="AI1" s="152"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="121" t="str">
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="160"/>
-      <c r="R2" s="161"/>
-      <c r="S2" s="168"/>
-      <c r="T2" s="169"/>
-      <c r="U2" s="169"/>
-      <c r="V2" s="169"/>
-      <c r="W2" s="169"/>
-      <c r="X2" s="169"/>
-      <c r="Y2" s="169"/>
-      <c r="Z2" s="170"/>
-      <c r="AA2" s="151" t="s">
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="161"/>
+      <c r="P2" s="162"/>
+      <c r="Q2" s="162"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="170"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="172"/>
+      <c r="AA2" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="152"/>
-      <c r="AC2" s="146" t="str">
+      <c r="AB2" s="154"/>
+      <c r="AC2" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="147"/>
-      <c r="AE2" s="147"/>
-      <c r="AF2" s="148"/>
-      <c r="AG2" s="153">
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="150">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="154"/>
-      <c r="AI2" s="155"/>
+      <c r="AH2" s="151"/>
+      <c r="AI2" s="152"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="121" t="str">
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="162"/>
-      <c r="P3" s="163"/>
-      <c r="Q3" s="163"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="173"/>
-      <c r="AA3" s="174"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="146" t="str">
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="164"/>
+      <c r="P3" s="165"/>
+      <c r="Q3" s="165"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="173"/>
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="175"/>
+      <c r="AA3" s="156"/>
+      <c r="AB3" s="157"/>
+      <c r="AC3" s="112" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="147"/>
-      <c r="AE3" s="147"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="153" t="str">
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="154"/>
-      <c r="AI3" s="155"/>
+      <c r="AH3" s="151"/>
+      <c r="AI3" s="152"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -38520,14 +38520,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -38537,6 +38529,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB82B77-F667-48C3-8E39-AA9CD6182FED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1B5E7-1014-4451-9024-63E1EBF9CD96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9524,8 +9524,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A103</a:t>
           </a:r>
@@ -9540,8 +9540,8 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>共通</a:t>
@@ -9550,8 +9550,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -14275,8 +14275,8 @@
       <xdr:rowOff>29560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>223339</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>270038</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>29560</xdr:rowOff>
     </xdr:to>
@@ -14295,8 +14295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2446276" y="3344260"/>
-          <a:ext cx="4130238" cy="0"/>
+          <a:off x="2427226" y="3351404"/>
+          <a:ext cx="2772000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14373,63 +14373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>91959</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>42698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>91959</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>132436</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="AutoShape 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900231C5-BA91-459B-8AD5-DD0F752ED00F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6168909" y="3357398"/>
-          <a:ext cx="0" cy="232613"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>203629</xdr:colOff>
+      <xdr:colOff>185770</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>203629</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139005</xdr:rowOff>
+      <xdr:colOff>185770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14442,12 +14395,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:endCxn id="82" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2689654" y="3362325"/>
-          <a:ext cx="0" cy="234255"/>
+          <a:off x="2650364" y="3369469"/>
+          <a:ext cx="0" cy="395193"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14468,141 +14422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="AutoShape 332">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4FED9-F7B2-4172-A03D-E034456F563C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5534026" y="3590925"/>
-          <a:ext cx="1285874" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー有無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Line 370">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24A170F-3BF7-4300-B7A5-E8956EEF5810}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="5991225" y="4352926"/>
-          <a:ext cx="371475" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14619,8 +14447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5781675" y="4305300"/>
-          <a:ext cx="542925" cy="180975"/>
+          <a:off x="5614987" y="3663554"/>
+          <a:ext cx="784622" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14664,7 +14492,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>有</a:t>
+            <a:t>エラー発生時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14673,16 +14501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152394</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60107</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82969</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14694,25 +14522,24 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="3"/>
-          <a:endCxn id="5" idx="3"/>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="63" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1971681" cy="1078131"/>
+        <a:xfrm>
+          <a:off x="4476750" y="3867151"/>
+          <a:ext cx="1630782" cy="682433"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -11594"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14735,96 +14562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Text Box 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE288FB9-1E34-449D-A8C3-82E16D37C8F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7162800" y="3724275"/>
-          <a:ext cx="542925" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>255985</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14837,12 +14584,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:endCxn id="78" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="3381375"/>
-          <a:ext cx="0" cy="781050"/>
+        <a:xfrm flipH="1">
+          <a:off x="4363641" y="3388519"/>
+          <a:ext cx="10715" cy="364332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14864,14 +14612,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14888,8 +14636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3800474" y="4429125"/>
-          <a:ext cx="1228725" cy="419100"/>
+          <a:off x="3769518" y="4019551"/>
+          <a:ext cx="1216819" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14965,14 +14713,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14989,8 +14737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4286250" y="4162425"/>
-          <a:ext cx="228600" cy="228600"/>
+          <a:off x="4250531" y="3752851"/>
+          <a:ext cx="226219" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -15093,8 +14841,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A101</a:t>
           </a:r>
@@ -15112,8 +14860,8 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>認証</a:t>
@@ -15122,8 +14870,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -15192,15 +14940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144502</xdr:rowOff>
+      <xdr:colOff>128679</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>272561</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134977</xdr:rowOff>
+      <xdr:colOff>254702</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15217,8 +14965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2095500" y="3976483"/>
-          <a:ext cx="1239715" cy="430090"/>
+          <a:off x="2045585" y="4008078"/>
+          <a:ext cx="1221398" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15302,15 +15050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102486</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:colOff>84627</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54861</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134977</xdr:rowOff>
+      <xdr:colOff>37002</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15327,8 +15075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2608294" y="3729403"/>
-          <a:ext cx="230798" cy="237555"/>
+          <a:off x="2549221" y="3764662"/>
+          <a:ext cx="226219" cy="233891"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -15360,16 +15108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>110637</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241606</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>138479</xdr:rowOff>
+      <xdr:rowOff>120620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>241788</xdr:colOff>
+      <xdr:colOff>98913</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33704</xdr:rowOff>
+      <xdr:rowOff>15845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15386,8 +15134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2894868" y="3530844"/>
-          <a:ext cx="687997" cy="188302"/>
+          <a:off x="2706200" y="3442464"/>
+          <a:ext cx="678838" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15436,6 +15184,207 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37002</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE72A54-DD67-43C8-BFDF-6EA493859A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2799252" y="3874464"/>
+          <a:ext cx="2930852" cy="910043"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25301"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22531</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156063</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Text Box 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA97A1-DEE4-4EC2-91EE-75C6461EF49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4718356" y="4864070"/>
+          <a:ext cx="685982" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>154125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EDDCD7-064B-4C7D-A6D8-7A58450C8466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4982850" y="3541864"/>
+          <a:ext cx="504000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20599,7 +20548,7 @@
   <dimension ref="A1:AN34"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="Q11" sqref="Q11:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -23377,8 +23326,8 @@
   </sheetPr>
   <dimension ref="A1:AL102"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -30834,7 +30783,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AG28" sqref="AG28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED1B5E7-1014-4451-9024-63E1EBF9CD96}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F222A-7C6E-491D-BBD0-78036D978274}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'4. プロジェクト一覧出力(A106)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -845,6 +845,108 @@
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -962,107 +1064,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1073,17 +1082,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1138,6 +1136,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2707,7 +2707,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2725,7 +2725,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2798,14 +2798,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2822,8 +2822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7448550"/>
+          <a:ext cx="533400" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6402,15 +6402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>189983</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237608</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>266184</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37584</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19332</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6426,7 +6426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3504683" y="5667657"/>
+          <a:off x="2171183" y="5381907"/>
           <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
@@ -7095,7 +7095,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="4423870" y="6156106"/>
-            <a:ext cx="409246" cy="260460"/>
+            <a:ext cx="409246" cy="299014"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7177,8 +7177,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="4357523" y="6542033"/>
-            <a:ext cx="532743" cy="279509"/>
+            <a:off x="4357523" y="6513121"/>
+            <a:ext cx="532743" cy="303153"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -11481,7 +11481,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11499,7 +11499,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11572,14 +11572,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11596,8 +11596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7448550"/>
+          <a:ext cx="533400" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16243,7 +16243,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16261,7 +16261,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16334,14 +16334,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16358,8 +16358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7439025"/>
+          <a:ext cx="533400" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20557,57 +20557,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="103" t="s">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="84" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="86"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="146" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="77">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="111">
         <f>IF(D8="","",D8)</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="78"/>
-      <c r="AI1" s="79"/>
+      <c r="AH1" s="112"/>
+      <c r="AI1" s="113"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -20615,53 +20615,53 @@
       <c r="AN1" s="8"/>
     </row>
     <row r="2" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="84" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="86"/>
-      <c r="AC2" s="90" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="124" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="92"/>
-      <c r="AG2" s="77">
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="126"/>
+      <c r="AG2" s="111">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="78"/>
-      <c r="AI2" s="79"/>
+      <c r="AH2" s="112"/>
+      <c r="AI2" s="113"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -20669,45 +20669,45 @@
       <c r="AN2" s="7"/>
     </row>
     <row r="3" spans="1:40" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="115" t="s">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="86"/>
-      <c r="AC3" s="112"/>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="77"/>
-      <c r="AH3" s="78"/>
-      <c r="AI3" s="79"/>
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="146"/>
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="112"/>
+      <c r="AI3" s="113"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -20744,1232 +20744,1076 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="115"/>
+      <c r="D7" s="114" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="82"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="80" t="s">
+      <c r="E7" s="116"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="81"/>
-      <c r="J7" s="83" t="s">
+      <c r="H7" s="116"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="81"/>
-      <c r="Q7" s="80" t="s">
+      <c r="K7" s="116"/>
+      <c r="L7" s="116"/>
+      <c r="M7" s="116"/>
+      <c r="N7" s="116"/>
+      <c r="O7" s="116"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="114" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="81"/>
-      <c r="AF7" s="80" t="s">
+      <c r="R7" s="116"/>
+      <c r="S7" s="116"/>
+      <c r="T7" s="116"/>
+      <c r="U7" s="116"/>
+      <c r="V7" s="116"/>
+      <c r="W7" s="116"/>
+      <c r="X7" s="116"/>
+      <c r="Y7" s="116"/>
+      <c r="Z7" s="116"/>
+      <c r="AA7" s="116"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="116"/>
+      <c r="AD7" s="116"/>
+      <c r="AE7" s="115"/>
+      <c r="AF7" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="82"/>
-      <c r="AI7" s="81"/>
+      <c r="AG7" s="116"/>
+      <c r="AH7" s="116"/>
+      <c r="AI7" s="115"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23">
         <v>1</v>
       </c>
-      <c r="B8" s="130">
+      <c r="B8" s="97">
         <v>1</v>
       </c>
-      <c r="C8" s="131"/>
-      <c r="D8" s="132">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>43578</v>
       </c>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="135" t="s">
+      <c r="E8" s="100"/>
+      <c r="F8" s="101"/>
+      <c r="G8" s="102" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="136"/>
-      <c r="I8" s="137"/>
-      <c r="J8" s="138" t="s">
+      <c r="H8" s="103"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
-      <c r="M8" s="139"/>
-      <c r="N8" s="139"/>
-      <c r="O8" s="139"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="141" t="s">
+      <c r="K8" s="106"/>
+      <c r="L8" s="106"/>
+      <c r="M8" s="106"/>
+      <c r="N8" s="106"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="107"/>
+      <c r="Q8" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="143"/>
-      <c r="AF8" s="138" t="s">
+      <c r="R8" s="109"/>
+      <c r="S8" s="109"/>
+      <c r="T8" s="109"/>
+      <c r="U8" s="109"/>
+      <c r="V8" s="109"/>
+      <c r="W8" s="109"/>
+      <c r="X8" s="109"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="109"/>
+      <c r="AA8" s="109"/>
+      <c r="AB8" s="109"/>
+      <c r="AC8" s="109"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="110"/>
+      <c r="AF8" s="105" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="139"/>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="140"/>
+      <c r="AG8" s="106"/>
+      <c r="AH8" s="106"/>
+      <c r="AI8" s="107"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="116">
+      <c r="B9" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="117"/>
-      <c r="D9" s="118">
+      <c r="C9" s="78"/>
+      <c r="D9" s="79">
         <v>43805</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="121" t="s">
+      <c r="E9" s="80"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
-      <c r="J9" s="124" t="s">
+      <c r="H9" s="83"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="K9" s="125"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="125"/>
-      <c r="N9" s="125"/>
-      <c r="O9" s="125"/>
-      <c r="P9" s="126"/>
-      <c r="Q9" s="127" t="s">
+      <c r="K9" s="86"/>
+      <c r="L9" s="86"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="86"/>
+      <c r="O9" s="86"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="128"/>
-      <c r="S9" s="128"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="128"/>
-      <c r="V9" s="128"/>
-      <c r="W9" s="128"/>
-      <c r="X9" s="128"/>
-      <c r="Y9" s="128"/>
-      <c r="Z9" s="128"/>
-      <c r="AA9" s="128"/>
-      <c r="AB9" s="128"/>
-      <c r="AC9" s="128"/>
-      <c r="AD9" s="128"/>
-      <c r="AE9" s="129"/>
-      <c r="AF9" s="124" t="s">
+      <c r="R9" s="89"/>
+      <c r="S9" s="89"/>
+      <c r="T9" s="89"/>
+      <c r="U9" s="89"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="89"/>
+      <c r="X9" s="89"/>
+      <c r="Y9" s="89"/>
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="89"/>
+      <c r="AB9" s="89"/>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="89"/>
+      <c r="AE9" s="90"/>
+      <c r="AF9" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="126"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+      <c r="AI9" s="87"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19">
         <v>3</v>
       </c>
-      <c r="B10" s="144" t="s">
+      <c r="B10" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="117"/>
-      <c r="D10" s="118">
+      <c r="C10" s="78"/>
+      <c r="D10" s="79">
         <v>43895</v>
       </c>
-      <c r="E10" s="119"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="145" t="s">
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124" t="s">
+      <c r="H10" s="83"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="125"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="125"/>
-      <c r="N10" s="125"/>
-      <c r="O10" s="125"/>
-      <c r="P10" s="126"/>
-      <c r="Q10" s="127" t="s">
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="R10" s="128"/>
-      <c r="S10" s="128"/>
-      <c r="T10" s="128"/>
-      <c r="U10" s="128"/>
-      <c r="V10" s="128"/>
-      <c r="W10" s="128"/>
-      <c r="X10" s="128"/>
-      <c r="Y10" s="128"/>
-      <c r="Z10" s="128"/>
-      <c r="AA10" s="128"/>
-      <c r="AB10" s="128"/>
-      <c r="AC10" s="128"/>
-      <c r="AD10" s="128"/>
-      <c r="AE10" s="129"/>
-      <c r="AF10" s="124" t="s">
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="90"/>
+      <c r="AF10" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="126"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+      <c r="AI10" s="87"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="19">
         <v>4</v>
       </c>
-      <c r="B11" s="144" t="s">
+      <c r="B11" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="118">
+      <c r="C11" s="78"/>
+      <c r="D11" s="79">
         <v>44796</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="145" t="s">
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="127" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
-      <c r="M11" s="125"/>
-      <c r="N11" s="125"/>
-      <c r="O11" s="125"/>
-      <c r="P11" s="126"/>
-      <c r="Q11" s="127" t="s">
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86"/>
+      <c r="O11" s="86"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="128"/>
-      <c r="S11" s="128"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="128"/>
-      <c r="V11" s="128"/>
-      <c r="W11" s="128"/>
-      <c r="X11" s="128"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="128"/>
-      <c r="AA11" s="128"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="128"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="124" t="s">
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+      <c r="AB11" s="89"/>
+      <c r="AC11" s="89"/>
+      <c r="AD11" s="89"/>
+      <c r="AE11" s="90"/>
+      <c r="AF11" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="126"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+      <c r="AI11" s="87"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="19"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="122"/>
-      <c r="I12" s="123"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
-      <c r="M12" s="125"/>
-      <c r="N12" s="125"/>
-      <c r="O12" s="125"/>
-      <c r="P12" s="126"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="128"/>
-      <c r="S12" s="128"/>
-      <c r="T12" s="128"/>
-      <c r="U12" s="128"/>
-      <c r="V12" s="128"/>
-      <c r="W12" s="128"/>
-      <c r="X12" s="128"/>
-      <c r="Y12" s="128"/>
-      <c r="Z12" s="128"/>
-      <c r="AA12" s="128"/>
-      <c r="AB12" s="128"/>
-      <c r="AC12" s="128"/>
-      <c r="AD12" s="128"/>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="147"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="126"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="86"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+      <c r="AB12" s="89"/>
+      <c r="AC12" s="89"/>
+      <c r="AD12" s="89"/>
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="85"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+      <c r="AI12" s="87"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="146"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="147"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
-      <c r="M13" s="125"/>
-      <c r="N13" s="125"/>
-      <c r="O13" s="125"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="128"/>
-      <c r="S13" s="128"/>
-      <c r="T13" s="128"/>
-      <c r="U13" s="128"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="128"/>
-      <c r="X13" s="128"/>
-      <c r="Y13" s="128"/>
-      <c r="Z13" s="128"/>
-      <c r="AA13" s="128"/>
-      <c r="AB13" s="128"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="128"/>
-      <c r="AE13" s="129"/>
-      <c r="AF13" s="147"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="126"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="88"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+      <c r="AB13" s="89"/>
+      <c r="AC13" s="89"/>
+      <c r="AD13" s="89"/>
+      <c r="AE13" s="90"/>
+      <c r="AF13" s="85"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+      <c r="AI13" s="87"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="147"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
-      <c r="M14" s="125"/>
-      <c r="N14" s="125"/>
-      <c r="O14" s="125"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="148"/>
-      <c r="R14" s="128"/>
-      <c r="S14" s="128"/>
-      <c r="T14" s="128"/>
-      <c r="U14" s="128"/>
-      <c r="V14" s="128"/>
-      <c r="W14" s="128"/>
-      <c r="X14" s="128"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="128"/>
-      <c r="AA14" s="128"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="128"/>
-      <c r="AE14" s="129"/>
-      <c r="AF14" s="147"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="126"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="86"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="86"/>
+      <c r="O14" s="86"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="88"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+      <c r="AB14" s="89"/>
+      <c r="AC14" s="89"/>
+      <c r="AD14" s="89"/>
+      <c r="AE14" s="90"/>
+      <c r="AF14" s="85"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+      <c r="AI14" s="87"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="118"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="146"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="147"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
-      <c r="M15" s="125"/>
-      <c r="N15" s="125"/>
-      <c r="O15" s="125"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="148"/>
-      <c r="R15" s="128"/>
-      <c r="S15" s="128"/>
-      <c r="T15" s="128"/>
-      <c r="U15" s="128"/>
-      <c r="V15" s="128"/>
-      <c r="W15" s="128"/>
-      <c r="X15" s="128"/>
-      <c r="Y15" s="128"/>
-      <c r="Z15" s="128"/>
-      <c r="AA15" s="128"/>
-      <c r="AB15" s="128"/>
-      <c r="AC15" s="128"/>
-      <c r="AD15" s="128"/>
-      <c r="AE15" s="129"/>
-      <c r="AF15" s="147"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="126"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="88"/>
+      <c r="R15" s="89"/>
+      <c r="S15" s="89"/>
+      <c r="T15" s="89"/>
+      <c r="U15" s="89"/>
+      <c r="V15" s="89"/>
+      <c r="W15" s="89"/>
+      <c r="X15" s="89"/>
+      <c r="Y15" s="89"/>
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="89"/>
+      <c r="AB15" s="89"/>
+      <c r="AC15" s="89"/>
+      <c r="AD15" s="89"/>
+      <c r="AE15" s="90"/>
+      <c r="AF15" s="85"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+      <c r="AI15" s="87"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="123"/>
-      <c r="J16" s="147"/>
-      <c r="K16" s="125"/>
-      <c r="L16" s="125"/>
-      <c r="M16" s="125"/>
-      <c r="N16" s="125"/>
-      <c r="O16" s="125"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="148"/>
-      <c r="R16" s="128"/>
-      <c r="S16" s="128"/>
-      <c r="T16" s="128"/>
-      <c r="U16" s="128"/>
-      <c r="V16" s="128"/>
-      <c r="W16" s="128"/>
-      <c r="X16" s="128"/>
-      <c r="Y16" s="128"/>
-      <c r="Z16" s="128"/>
-      <c r="AA16" s="128"/>
-      <c r="AB16" s="128"/>
-      <c r="AC16" s="128"/>
-      <c r="AD16" s="128"/>
-      <c r="AE16" s="129"/>
-      <c r="AF16" s="147"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="126"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="86"/>
+      <c r="M16" s="86"/>
+      <c r="N16" s="86"/>
+      <c r="O16" s="86"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="89"/>
+      <c r="S16" s="89"/>
+      <c r="T16" s="89"/>
+      <c r="U16" s="89"/>
+      <c r="V16" s="89"/>
+      <c r="W16" s="89"/>
+      <c r="X16" s="89"/>
+      <c r="Y16" s="89"/>
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="89"/>
+      <c r="AB16" s="89"/>
+      <c r="AC16" s="89"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="90"/>
+      <c r="AF16" s="85"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+      <c r="AI16" s="87"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="125"/>
-      <c r="M17" s="125"/>
-      <c r="N17" s="125"/>
-      <c r="O17" s="125"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="148"/>
-      <c r="R17" s="128"/>
-      <c r="S17" s="128"/>
-      <c r="T17" s="128"/>
-      <c r="U17" s="128"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="128"/>
-      <c r="X17" s="128"/>
-      <c r="Y17" s="128"/>
-      <c r="Z17" s="128"/>
-      <c r="AA17" s="128"/>
-      <c r="AB17" s="128"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="128"/>
-      <c r="AE17" s="129"/>
-      <c r="AF17" s="147"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="126"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="86"/>
+      <c r="L17" s="86"/>
+      <c r="M17" s="86"/>
+      <c r="N17" s="86"/>
+      <c r="O17" s="86"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="88"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="89"/>
+      <c r="AB17" s="89"/>
+      <c r="AC17" s="89"/>
+      <c r="AD17" s="89"/>
+      <c r="AE17" s="90"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+      <c r="AI17" s="87"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="125"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
-      <c r="Q18" s="148"/>
-      <c r="R18" s="128"/>
-      <c r="S18" s="128"/>
-      <c r="T18" s="128"/>
-      <c r="U18" s="128"/>
-      <c r="V18" s="128"/>
-      <c r="W18" s="128"/>
-      <c r="X18" s="128"/>
-      <c r="Y18" s="128"/>
-      <c r="Z18" s="128"/>
-      <c r="AA18" s="128"/>
-      <c r="AB18" s="128"/>
-      <c r="AC18" s="128"/>
-      <c r="AD18" s="128"/>
-      <c r="AE18" s="129"/>
-      <c r="AF18" s="147"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="126"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="86"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="89"/>
+      <c r="S18" s="89"/>
+      <c r="T18" s="89"/>
+      <c r="U18" s="89"/>
+      <c r="V18" s="89"/>
+      <c r="W18" s="89"/>
+      <c r="X18" s="89"/>
+      <c r="Y18" s="89"/>
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="89"/>
+      <c r="AB18" s="89"/>
+      <c r="AC18" s="89"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="90"/>
+      <c r="AF18" s="85"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+      <c r="AI18" s="87"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
-      <c r="J19" s="147"/>
-      <c r="K19" s="125"/>
-      <c r="L19" s="125"/>
-      <c r="M19" s="125"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="126"/>
-      <c r="Q19" s="148"/>
-      <c r="R19" s="128"/>
-      <c r="S19" s="128"/>
-      <c r="T19" s="128"/>
-      <c r="U19" s="128"/>
-      <c r="V19" s="128"/>
-      <c r="W19" s="128"/>
-      <c r="X19" s="128"/>
-      <c r="Y19" s="128"/>
-      <c r="Z19" s="128"/>
-      <c r="AA19" s="128"/>
-      <c r="AB19" s="128"/>
-      <c r="AC19" s="128"/>
-      <c r="AD19" s="128"/>
-      <c r="AE19" s="129"/>
-      <c r="AF19" s="147"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="126"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="89"/>
+      <c r="S19" s="89"/>
+      <c r="T19" s="89"/>
+      <c r="U19" s="89"/>
+      <c r="V19" s="89"/>
+      <c r="W19" s="89"/>
+      <c r="X19" s="89"/>
+      <c r="Y19" s="89"/>
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="89"/>
+      <c r="AB19" s="89"/>
+      <c r="AC19" s="89"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="90"/>
+      <c r="AF19" s="85"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+      <c r="AI19" s="87"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="117"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="147"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="125"/>
-      <c r="M20" s="125"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="126"/>
-      <c r="Q20" s="148"/>
-      <c r="R20" s="128"/>
-      <c r="S20" s="128"/>
-      <c r="T20" s="128"/>
-      <c r="U20" s="128"/>
-      <c r="V20" s="128"/>
-      <c r="W20" s="128"/>
-      <c r="X20" s="128"/>
-      <c r="Y20" s="128"/>
-      <c r="Z20" s="128"/>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="128"/>
-      <c r="AC20" s="128"/>
-      <c r="AD20" s="128"/>
-      <c r="AE20" s="129"/>
-      <c r="AF20" s="147"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="126"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="86"/>
+      <c r="O20" s="86"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="88"/>
+      <c r="R20" s="89"/>
+      <c r="S20" s="89"/>
+      <c r="T20" s="89"/>
+      <c r="U20" s="89"/>
+      <c r="V20" s="89"/>
+      <c r="W20" s="89"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
+      <c r="AC20" s="89"/>
+      <c r="AD20" s="89"/>
+      <c r="AE20" s="90"/>
+      <c r="AF20" s="85"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+      <c r="AI20" s="87"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="118"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="147"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="125"/>
-      <c r="M21" s="125"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="148"/>
-      <c r="R21" s="128"/>
-      <c r="S21" s="128"/>
-      <c r="T21" s="128"/>
-      <c r="U21" s="128"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="128"/>
-      <c r="X21" s="128"/>
-      <c r="Y21" s="128"/>
-      <c r="Z21" s="128"/>
-      <c r="AA21" s="128"/>
-      <c r="AB21" s="128"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="128"/>
-      <c r="AE21" s="129"/>
-      <c r="AF21" s="147"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="126"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="86"/>
+      <c r="O21" s="86"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="88"/>
+      <c r="R21" s="89"/>
+      <c r="S21" s="89"/>
+      <c r="T21" s="89"/>
+      <c r="U21" s="89"/>
+      <c r="V21" s="89"/>
+      <c r="W21" s="89"/>
+      <c r="X21" s="89"/>
+      <c r="Y21" s="89"/>
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="89"/>
+      <c r="AB21" s="89"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="85"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+      <c r="AI21" s="87"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="117"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="123"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="125"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="125"/>
-      <c r="N22" s="125"/>
-      <c r="O22" s="125"/>
-      <c r="P22" s="126"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="128"/>
-      <c r="S22" s="128"/>
-      <c r="T22" s="128"/>
-      <c r="U22" s="128"/>
-      <c r="V22" s="128"/>
-      <c r="W22" s="128"/>
-      <c r="X22" s="128"/>
-      <c r="Y22" s="128"/>
-      <c r="Z22" s="128"/>
-      <c r="AA22" s="128"/>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="129"/>
-      <c r="AF22" s="147"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="126"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
+      <c r="N22" s="86"/>
+      <c r="O22" s="86"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="88"/>
+      <c r="R22" s="89"/>
+      <c r="S22" s="89"/>
+      <c r="T22" s="89"/>
+      <c r="U22" s="89"/>
+      <c r="V22" s="89"/>
+      <c r="W22" s="89"/>
+      <c r="X22" s="89"/>
+      <c r="Y22" s="89"/>
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="89"/>
+      <c r="AB22" s="89"/>
+      <c r="AC22" s="89"/>
+      <c r="AD22" s="89"/>
+      <c r="AE22" s="90"/>
+      <c r="AF22" s="85"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+      <c r="AI22" s="87"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="147"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="125"/>
-      <c r="M23" s="125"/>
-      <c r="N23" s="125"/>
-      <c r="O23" s="125"/>
-      <c r="P23" s="126"/>
-      <c r="Q23" s="148"/>
-      <c r="R23" s="128"/>
-      <c r="S23" s="128"/>
-      <c r="T23" s="128"/>
-      <c r="U23" s="128"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="128"/>
-      <c r="X23" s="128"/>
-      <c r="Y23" s="128"/>
-      <c r="Z23" s="128"/>
-      <c r="AA23" s="128"/>
-      <c r="AB23" s="128"/>
-      <c r="AC23" s="128"/>
-      <c r="AD23" s="128"/>
-      <c r="AE23" s="129"/>
-      <c r="AF23" s="147"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="126"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="82"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="84"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
+      <c r="N23" s="86"/>
+      <c r="O23" s="86"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="88"/>
+      <c r="R23" s="89"/>
+      <c r="S23" s="89"/>
+      <c r="T23" s="89"/>
+      <c r="U23" s="89"/>
+      <c r="V23" s="89"/>
+      <c r="W23" s="89"/>
+      <c r="X23" s="89"/>
+      <c r="Y23" s="89"/>
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="89"/>
+      <c r="AB23" s="89"/>
+      <c r="AC23" s="89"/>
+      <c r="AD23" s="89"/>
+      <c r="AE23" s="90"/>
+      <c r="AF23" s="85"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+      <c r="AI23" s="87"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="118"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="120"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="147"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="125"/>
-      <c r="M24" s="125"/>
-      <c r="N24" s="125"/>
-      <c r="O24" s="125"/>
-      <c r="P24" s="126"/>
-      <c r="Q24" s="148"/>
-      <c r="R24" s="128"/>
-      <c r="S24" s="128"/>
-      <c r="T24" s="128"/>
-      <c r="U24" s="128"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="128"/>
-      <c r="X24" s="128"/>
-      <c r="Y24" s="128"/>
-      <c r="Z24" s="128"/>
-      <c r="AA24" s="128"/>
-      <c r="AB24" s="128"/>
-      <c r="AC24" s="128"/>
-      <c r="AD24" s="128"/>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="147"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="126"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="82"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="84"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="86"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="88"/>
+      <c r="R24" s="89"/>
+      <c r="S24" s="89"/>
+      <c r="T24" s="89"/>
+      <c r="U24" s="89"/>
+      <c r="V24" s="89"/>
+      <c r="W24" s="89"/>
+      <c r="X24" s="89"/>
+      <c r="Y24" s="89"/>
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="89"/>
+      <c r="AB24" s="89"/>
+      <c r="AC24" s="89"/>
+      <c r="AD24" s="89"/>
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="85"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+      <c r="AI24" s="87"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="120"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="147"/>
-      <c r="K25" s="125"/>
-      <c r="L25" s="125"/>
-      <c r="M25" s="125"/>
-      <c r="N25" s="125"/>
-      <c r="O25" s="125"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="148"/>
-      <c r="R25" s="128"/>
-      <c r="S25" s="128"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="128"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="128"/>
-      <c r="Y25" s="128"/>
-      <c r="Z25" s="128"/>
-      <c r="AA25" s="128"/>
-      <c r="AB25" s="128"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="128"/>
-      <c r="AE25" s="129"/>
-      <c r="AF25" s="147"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="126"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="86"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="88"/>
+      <c r="R25" s="89"/>
+      <c r="S25" s="89"/>
+      <c r="T25" s="89"/>
+      <c r="U25" s="89"/>
+      <c r="V25" s="89"/>
+      <c r="W25" s="89"/>
+      <c r="X25" s="89"/>
+      <c r="Y25" s="89"/>
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="89"/>
+      <c r="AB25" s="89"/>
+      <c r="AC25" s="89"/>
+      <c r="AD25" s="89"/>
+      <c r="AE25" s="90"/>
+      <c r="AF25" s="85"/>
+      <c r="AG25" s="86"/>
+      <c r="AH25" s="86"/>
+      <c r="AI25" s="87"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="118"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="147"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="125"/>
-      <c r="M26" s="125"/>
-      <c r="N26" s="125"/>
-      <c r="O26" s="125"/>
-      <c r="P26" s="126"/>
-      <c r="Q26" s="148"/>
-      <c r="R26" s="128"/>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128"/>
-      <c r="U26" s="128"/>
-      <c r="V26" s="128"/>
-      <c r="W26" s="128"/>
-      <c r="X26" s="128"/>
-      <c r="Y26" s="128"/>
-      <c r="Z26" s="128"/>
-      <c r="AA26" s="128"/>
-      <c r="AB26" s="128"/>
-      <c r="AC26" s="128"/>
-      <c r="AD26" s="128"/>
-      <c r="AE26" s="129"/>
-      <c r="AF26" s="147"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="126"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="82"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="88"/>
+      <c r="R26" s="89"/>
+      <c r="S26" s="89"/>
+      <c r="T26" s="89"/>
+      <c r="U26" s="89"/>
+      <c r="V26" s="89"/>
+      <c r="W26" s="89"/>
+      <c r="X26" s="89"/>
+      <c r="Y26" s="89"/>
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="89"/>
+      <c r="AB26" s="89"/>
+      <c r="AC26" s="89"/>
+      <c r="AD26" s="89"/>
+      <c r="AE26" s="90"/>
+      <c r="AF26" s="85"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+      <c r="AI26" s="87"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="118"/>
-      <c r="E27" s="119"/>
-      <c r="F27" s="120"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="147"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="125"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="125"/>
-      <c r="O27" s="125"/>
-      <c r="P27" s="126"/>
-      <c r="Q27" s="148"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="129"/>
-      <c r="AF27" s="147"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="126"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="87"/>
+      <c r="Q27" s="88"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="89"/>
+      <c r="T27" s="89"/>
+      <c r="U27" s="89"/>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
+      <c r="Y27" s="89"/>
+      <c r="Z27" s="89"/>
+      <c r="AA27" s="89"/>
+      <c r="AB27" s="89"/>
+      <c r="AC27" s="89"/>
+      <c r="AD27" s="89"/>
+      <c r="AE27" s="90"/>
+      <c r="AF27" s="85"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="87"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="118"/>
-      <c r="E28" s="119"/>
-      <c r="F28" s="120"/>
-      <c r="G28" s="146"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="147"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="125"/>
-      <c r="M28" s="125"/>
-      <c r="N28" s="125"/>
-      <c r="O28" s="125"/>
-      <c r="P28" s="126"/>
-      <c r="Q28" s="148"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="129"/>
-      <c r="AF28" s="147"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="126"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="82"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="87"/>
+      <c r="Q28" s="88"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
+      <c r="AA28" s="89"/>
+      <c r="AB28" s="89"/>
+      <c r="AC28" s="89"/>
+      <c r="AD28" s="89"/>
+      <c r="AE28" s="90"/>
+      <c r="AF28" s="85"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
+      <c r="AI28" s="87"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="120"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="125"/>
-      <c r="P29" s="126"/>
-      <c r="Q29" s="148"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="129"/>
-      <c r="AF29" s="147"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="126"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="87"/>
+      <c r="Q29" s="88"/>
+      <c r="R29" s="89"/>
+      <c r="S29" s="89"/>
+      <c r="T29" s="89"/>
+      <c r="U29" s="89"/>
+      <c r="V29" s="89"/>
+      <c r="W29" s="89"/>
+      <c r="X29" s="89"/>
+      <c r="Y29" s="89"/>
+      <c r="Z29" s="89"/>
+      <c r="AA29" s="89"/>
+      <c r="AB29" s="89"/>
+      <c r="AC29" s="89"/>
+      <c r="AD29" s="89"/>
+      <c r="AE29" s="90"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="86"/>
+      <c r="AI29" s="87"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="118"/>
-      <c r="E30" s="119"/>
-      <c r="F30" s="120"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="125"/>
-      <c r="P30" s="126"/>
-      <c r="Q30" s="148"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="129"/>
-      <c r="AF30" s="147"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="126"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
+      <c r="N30" s="86"/>
+      <c r="O30" s="86"/>
+      <c r="P30" s="87"/>
+      <c r="Q30" s="88"/>
+      <c r="R30" s="89"/>
+      <c r="S30" s="89"/>
+      <c r="T30" s="89"/>
+      <c r="U30" s="89"/>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+      <c r="Y30" s="89"/>
+      <c r="Z30" s="89"/>
+      <c r="AA30" s="89"/>
+      <c r="AB30" s="89"/>
+      <c r="AC30" s="89"/>
+      <c r="AD30" s="89"/>
+      <c r="AE30" s="90"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="86"/>
+      <c r="AH30" s="86"/>
+      <c r="AI30" s="87"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="117"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="119"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="125"/>
-      <c r="P31" s="126"/>
-      <c r="Q31" s="148"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="129"/>
-      <c r="AF31" s="147"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="126"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
+      <c r="N31" s="86"/>
+      <c r="O31" s="86"/>
+      <c r="P31" s="87"/>
+      <c r="Q31" s="88"/>
+      <c r="R31" s="89"/>
+      <c r="S31" s="89"/>
+      <c r="T31" s="89"/>
+      <c r="U31" s="89"/>
+      <c r="V31" s="89"/>
+      <c r="W31" s="89"/>
+      <c r="X31" s="89"/>
+      <c r="Y31" s="89"/>
+      <c r="Z31" s="89"/>
+      <c r="AA31" s="89"/>
+      <c r="AB31" s="89"/>
+      <c r="AC31" s="89"/>
+      <c r="AD31" s="89"/>
+      <c r="AE31" s="90"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="86"/>
+      <c r="AH31" s="86"/>
+      <c r="AI31" s="87"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="117"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="122"/>
-      <c r="I32" s="123"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="125"/>
-      <c r="P32" s="126"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="129"/>
-      <c r="AF32" s="147"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="126"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
+      <c r="N32" s="86"/>
+      <c r="O32" s="86"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="88"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="89"/>
+      <c r="AC32" s="89"/>
+      <c r="AD32" s="89"/>
+      <c r="AE32" s="90"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="86"/>
+      <c r="AH32" s="86"/>
+      <c r="AI32" s="87"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="117"/>
-      <c r="D33" s="118"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="125"/>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="125"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="148"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="129"/>
-      <c r="AF33" s="147"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="126"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="86"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="88"/>
+      <c r="R33" s="89"/>
+      <c r="S33" s="89"/>
+      <c r="T33" s="89"/>
+      <c r="U33" s="89"/>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+      <c r="Y33" s="89"/>
+      <c r="Z33" s="89"/>
+      <c r="AA33" s="89"/>
+      <c r="AB33" s="89"/>
+      <c r="AC33" s="89"/>
+      <c r="AD33" s="89"/>
+      <c r="AE33" s="90"/>
+      <c r="AF33" s="85"/>
+      <c r="AG33" s="86"/>
+      <c r="AH33" s="86"/>
+      <c r="AI33" s="87"/>
     </row>
     <row r="34" spans="1:35" ht="14.25" x14ac:dyDescent="0.15">
       <c r="K34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -21993,6 +21837,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -22149,163 +22149,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="94" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="96"/>
-      <c r="S1" s="155" t="str">
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="104"/>
-      <c r="U1" s="104"/>
-      <c r="V1" s="104"/>
-      <c r="W1" s="104"/>
-      <c r="X1" s="104"/>
-      <c r="Y1" s="104"/>
-      <c r="Z1" s="105"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="139"/>
+      <c r="AA1" s="151" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="107"/>
-      <c r="U2" s="107"/>
-      <c r="V2" s="107"/>
-      <c r="W2" s="107"/>
-      <c r="X2" s="107"/>
-      <c r="Y2" s="107"/>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="132"/>
+      <c r="Q2" s="132"/>
+      <c r="R2" s="133"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="141"/>
+      <c r="U2" s="141"/>
+      <c r="V2" s="141"/>
+      <c r="W2" s="141"/>
+      <c r="X2" s="141"/>
+      <c r="Y2" s="141"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="102"/>
-      <c r="S3" s="109"/>
-      <c r="T3" s="110"/>
-      <c r="U3" s="110"/>
-      <c r="V3" s="110"/>
-      <c r="W3" s="110"/>
-      <c r="X3" s="110"/>
-      <c r="Y3" s="110"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="153"/>
-      <c r="AB3" s="154"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="135"/>
+      <c r="Q3" s="135"/>
+      <c r="R3" s="136"/>
+      <c r="S3" s="143"/>
+      <c r="T3" s="144"/>
+      <c r="U3" s="144"/>
+      <c r="V3" s="144"/>
+      <c r="W3" s="144"/>
+      <c r="X3" s="144"/>
+      <c r="Y3" s="144"/>
+      <c r="Z3" s="145"/>
+      <c r="AA3" s="151"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -23293,6 +23293,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -23302,14 +23310,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -23336,163 +23336,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -27164,6 +27164,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -27173,14 +27181,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -27213,163 +27213,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -29244,7 +29244,6 @@
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -30746,6 +30745,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -30755,19 +30762,11 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -30792,163 +30791,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -34620,6 +34619,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -34629,14 +34636,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -34669,163 +34668,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="87" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="158" t="s">
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="159"/>
-      <c r="Q1" s="159"/>
-      <c r="R1" s="160"/>
-      <c r="S1" s="167" t="str">
+      <c r="P1" s="157"/>
+      <c r="Q1" s="157"/>
+      <c r="R1" s="158"/>
+      <c r="S1" s="165" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム処理フロー</v>
       </c>
-      <c r="T1" s="168"/>
-      <c r="U1" s="168"/>
-      <c r="V1" s="168"/>
-      <c r="W1" s="168"/>
-      <c r="X1" s="168"/>
-      <c r="Y1" s="168"/>
-      <c r="Z1" s="169"/>
-      <c r="AA1" s="153" t="s">
+      <c r="T1" s="166"/>
+      <c r="U1" s="166"/>
+      <c r="V1" s="166"/>
+      <c r="W1" s="166"/>
+      <c r="X1" s="166"/>
+      <c r="Y1" s="166"/>
+      <c r="Z1" s="167"/>
+      <c r="AA1" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="154"/>
-      <c r="AC1" s="112" t="str">
+      <c r="AB1" s="152"/>
+      <c r="AC1" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="113"/>
-      <c r="AE1" s="113"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="150">
+      <c r="AD1" s="147"/>
+      <c r="AE1" s="147"/>
+      <c r="AF1" s="148"/>
+      <c r="AG1" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43578</v>
       </c>
-      <c r="AH1" s="151"/>
-      <c r="AI1" s="152"/>
+      <c r="AH1" s="154"/>
+      <c r="AI1" s="155"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="8"/>
     </row>
     <row r="2" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="87" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="161"/>
-      <c r="P2" s="162"/>
-      <c r="Q2" s="162"/>
-      <c r="R2" s="163"/>
-      <c r="S2" s="170"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="172"/>
-      <c r="AA2" s="153" t="s">
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="159"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="161"/>
+      <c r="S2" s="168"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+      <c r="V2" s="169"/>
+      <c r="W2" s="169"/>
+      <c r="X2" s="169"/>
+      <c r="Y2" s="169"/>
+      <c r="Z2" s="170"/>
+      <c r="AA2" s="151" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="154"/>
-      <c r="AC2" s="112" t="str">
+      <c r="AB2" s="152"/>
+      <c r="AC2" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="150">
+      <c r="AD2" s="147"/>
+      <c r="AE2" s="147"/>
+      <c r="AF2" s="148"/>
+      <c r="AG2" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="151"/>
-      <c r="AI2" s="152"/>
+      <c r="AH2" s="154"/>
+      <c r="AI2" s="155"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
     </row>
     <row r="3" spans="1:38" s="9" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="118" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="121" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="89"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="165"/>
-      <c r="Q3" s="165"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="173"/>
-      <c r="T3" s="174"/>
-      <c r="U3" s="174"/>
-      <c r="V3" s="174"/>
-      <c r="W3" s="174"/>
-      <c r="X3" s="174"/>
-      <c r="Y3" s="174"/>
-      <c r="Z3" s="175"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="157"/>
-      <c r="AC3" s="112" t="str">
+      <c r="F3" s="122"/>
+      <c r="G3" s="122"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
+      <c r="J3" s="122"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="162"/>
+      <c r="P3" s="163"/>
+      <c r="Q3" s="163"/>
+      <c r="R3" s="164"/>
+      <c r="S3" s="171"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="173"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="146" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="113"/>
-      <c r="AE3" s="113"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="150" t="str">
+      <c r="AD3" s="147"/>
+      <c r="AE3" s="147"/>
+      <c r="AF3" s="148"/>
+      <c r="AG3" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="151"/>
-      <c r="AI3" s="152"/>
+      <c r="AH3" s="154"/>
+      <c r="AI3" s="155"/>
       <c r="AJ3" s="7"/>
       <c r="AK3" s="7"/>
       <c r="AL3" s="7"/>
@@ -38469,6 +38468,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -38478,14 +38485,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/030_アプリ設計/010_システム機能設計/システム処理フロー_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CD83A-D206-4753-B857-3FC55B5A63F1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5F222A-7C6E-491D-BBD0-78036D978274}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="894" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,20 +11,20 @@
     <sheet name="表紙" sheetId="20" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="21" r:id="rId2"/>
     <sheet name="目次" sheetId="22" r:id="rId3"/>
-    <sheet name="1. ログイン(A101)" sheetId="23" r:id="rId4"/>
+    <sheet name="1. 認証(A101)" sheetId="23" r:id="rId4"/>
     <sheet name="2. プロジェクト管理(A102)" sheetId="24" r:id="rId5"/>
     <sheet name="3. 共通(A103)" sheetId="31" r:id="rId6"/>
     <sheet name="4. プロジェクト一覧出力(A106)" sheetId="30" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$63</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AO$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'4. プロジェクト一覧出力(A106)'!$A$1:$AI$63</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$23</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 認証(A101)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. 共通(A103)'!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="6">'4. プロジェクト一覧出力(A106)'!$1:$5</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="44">
   <si>
     <t>PJ名</t>
   </si>
@@ -189,10 +189,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
     <t>2. プロジェクト管理(A102)</t>
     <rPh sb="9" eb="11">
       <t>カンリ</t>
@@ -201,10 +197,6 @@
   </si>
   <si>
     <t>2. プロジェクト管理(A102)</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>1. ログイン(A101)</t>
     <phoneticPr fontId="9"/>
   </si>
   <si>
@@ -307,6 +299,13 @@
     </rPh>
     <rPh sb="43" eb="45">
       <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>1. 認証(A101)</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="9"/>
   </si>
@@ -2708,7 +2707,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2726,7 +2725,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2799,14 +2798,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2823,8 +2822,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7448550"/>
+          <a:ext cx="533400" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5863,14 +5862,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>268895</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>102322</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7072</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19047</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>14955</xdr:rowOff>
+      <xdr:rowOff>62580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5887,8 +5886,202 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3053126" y="2908534"/>
-          <a:ext cx="863844" cy="498786"/>
+          <a:off x="3031145" y="2893147"/>
+          <a:ext cx="855052" cy="484133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WA10101</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>42499</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>273297</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="AutoShape 363">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4318649E-CD95-44CE-B9D1-A10409E25ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3357199" y="2562225"/>
+          <a:ext cx="230798" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157898</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="109" name="AutoShape 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610CF7-2B96-4E15-A201-5DD8A46EC61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:stCxn id="99" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3472598" y="2028825"/>
+          <a:ext cx="566002" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>252776</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>91332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2928</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>3965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Rectangle 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE4B6C4F-B13E-4548-83FF-C87D96F52D4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3015026" y="4263282"/>
+          <a:ext cx="855052" cy="484133"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5950,22 +6143,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>42499</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>26380</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>273297</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>257178</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="AutoShape 363">
+        <xdr:cNvPr id="96" name="AutoShape 363">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4318649E-CD95-44CE-B9D1-A10409E25ED3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{943B44F9-840F-4FA3-BAE2-A2AEACD9B923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5975,8 +6168,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3383576" y="2570285"/>
-          <a:ext cx="230798" cy="235927"/>
+          <a:off x="3341080" y="3932360"/>
+          <a:ext cx="230798" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -6008,115 +6201,36 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>43962</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>141779</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>62580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>175113</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>49090</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Text Box 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41DC9F4A-870E-4DDA-82C7-E95006399DD0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2828193" y="2373923"/>
-          <a:ext cx="687997" cy="188302"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>ログアウト</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>157898</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>143971</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>46160</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="109" name="AutoShape 121">
+        <xdr:cNvPr id="97" name="AutoShape 121">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66610CF7-2B96-4E15-A201-5DD8A46EC61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C66650D-4C16-4490-ACDD-B25A18EC3229}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
-          <a:stCxn id="99" idx="0"/>
+          <a:stCxn id="96" idx="0"/>
+          <a:endCxn id="98" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="3472598" y="2266950"/>
-          <a:ext cx="585052" cy="247650"/>
+          <a:off x="3456479" y="3377280"/>
+          <a:ext cx="2192" cy="555080"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -6288,15 +6402,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>189983</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>237608</xdr:colOff>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>66957</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>266184</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>37584</xdr:colOff>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>19332</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -6312,7 +6426,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3504683" y="5667657"/>
+          <a:off x="2171183" y="5381907"/>
           <a:ext cx="7258051" cy="1952625"/>
           <a:chOff x="2350047" y="4903076"/>
           <a:chExt cx="7249511" cy="1975616"/>
@@ -6981,7 +7095,7 @@
         <xdr:spPr bwMode="auto">
           <a:xfrm>
             <a:off x="4423870" y="6156106"/>
-            <a:ext cx="409246" cy="260460"/>
+            <a:ext cx="409246" cy="299014"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -7063,8 +7177,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="4357523" y="6542033"/>
-            <a:ext cx="532743" cy="279509"/>
+            <a:off x="4357523" y="6513121"/>
+            <a:ext cx="532743" cy="303153"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -9410,8 +9524,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A103</a:t>
           </a:r>
@@ -9426,8 +9540,8 @@
           <a:r>
             <a:rPr lang="ja-JP" altLang="en-US" sz="1000" b="0" i="0" baseline="0">
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>共通</a:t>
@@ -9436,8 +9550,8 @@
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11367,7 +11481,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11385,7 +11499,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11458,14 +11572,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11482,8 +11596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7448550"/>
+          <a:ext cx="533400" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14161,8 +14275,8 @@
       <xdr:rowOff>29560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>223339</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>270038</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>29560</xdr:rowOff>
     </xdr:to>
@@ -14181,8 +14295,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2446276" y="3344260"/>
-          <a:ext cx="4130238" cy="0"/>
+          <a:off x="2427226" y="3351404"/>
+          <a:ext cx="2772000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -14259,63 +14373,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>91959</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>42698</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>91959</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>132436</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="66" name="AutoShape 121">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900231C5-BA91-459B-8AD5-DD0F752ED00F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks noChangeShapeType="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6168909" y="3357398"/>
-          <a:ext cx="0" cy="232613"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>203629</xdr:colOff>
+      <xdr:colOff>185770</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>203629</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139005</xdr:rowOff>
+      <xdr:colOff>185770</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14193</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14328,12 +14395,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:endCxn id="82" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2689654" y="3362325"/>
-          <a:ext cx="0" cy="234255"/>
+          <a:off x="2650364" y="3369469"/>
+          <a:ext cx="0" cy="395193"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14354,141 +14422,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>138112</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="AutoShape 332">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2C4FED9-F7B2-4172-A03D-E034456F563C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5534026" y="3590925"/>
-          <a:ext cx="1285874" cy="581025"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartDecision">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="27432" bIns="0" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー有無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>100013</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>80963</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="Line 370">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24A170F-3BF7-4300-B7A5-E8956EEF5810}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm rot="5400000">
-          <a:off x="5991225" y="4352926"/>
-          <a:ext cx="371475" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>101203</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>94060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14505,8 +14447,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5781675" y="4305300"/>
-          <a:ext cx="542925" cy="180975"/>
+          <a:off x="5614987" y="3663554"/>
+          <a:ext cx="784622" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14550,7 +14492,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>有</a:t>
+            <a:t>エラー発生時</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -14559,16 +14501,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>152394</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>60107</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>138113</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>82969</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>84740</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14580,25 +14522,24 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="71" idx="3"/>
-          <a:endCxn id="5" idx="3"/>
+          <a:stCxn id="78" idx="3"/>
+          <a:endCxn id="63" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4848219" y="2803307"/>
-          <a:ext cx="1971681" cy="1078131"/>
+        <a:xfrm>
+          <a:off x="4476750" y="3867151"/>
+          <a:ext cx="1630782" cy="682433"/>
         </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -11594"/>
-          </a:avLst>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:solidFill>
             <a:sysClr val="windowText" lastClr="000000"/>
           </a:solidFill>
-          <a:prstDash val="dash"/>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -14621,96 +14562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="Text Box 324">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE288FB9-1E34-449D-A8C3-82E16D37C8F9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="7162800" y="3724275"/>
-          <a:ext cx="542925" cy="180975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>無</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>255985</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -14723,12 +14584,13 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
+          <a:endCxn id="78" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4410075" y="3381375"/>
-          <a:ext cx="0" cy="781050"/>
+        <a:xfrm flipH="1">
+          <a:off x="4363641" y="3388519"/>
+          <a:ext cx="10715" cy="364332"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -14750,14 +14612,14 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>126207</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>116682</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14774,8 +14636,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3800474" y="4429125"/>
-          <a:ext cx="1228725" cy="419100"/>
+          <a:off x="3769518" y="4019551"/>
+          <a:ext cx="1216819" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14851,14 +14713,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2382</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88107</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14875,8 +14737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4286250" y="4162425"/>
-          <a:ext cx="228600" cy="228600"/>
+          <a:off x="4250531" y="3752851"/>
+          <a:ext cx="226219" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -14979,8 +14841,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A101</a:t>
           </a:r>
@@ -14998,18 +14860,18 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -15078,15 +14940,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>146538</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>144502</xdr:rowOff>
+      <xdr:colOff>128679</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114734</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>272561</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>134977</xdr:rowOff>
+      <xdr:colOff>254702</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>105209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15103,8 +14965,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2095500" y="3976483"/>
-          <a:ext cx="1239715" cy="430090"/>
+          <a:off x="2045585" y="4008078"/>
+          <a:ext cx="1221398" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15148,8 +15010,8 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>A101</a:t>
           </a:r>
@@ -15167,18 +15029,18 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -15188,15 +15050,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>102486</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
+      <xdr:colOff>84627</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>14193</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>54861</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>134977</xdr:rowOff>
+      <xdr:colOff>37002</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>105209</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15213,8 +15075,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2608294" y="3729403"/>
-          <a:ext cx="230798" cy="237555"/>
+          <a:off x="2549221" y="3764662"/>
+          <a:ext cx="226219" cy="233891"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartOffpageConnector">
           <a:avLst/>
@@ -15246,16 +15108,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>110637</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241606</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>138479</xdr:rowOff>
+      <xdr:rowOff>120620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>241788</xdr:colOff>
+      <xdr:colOff>98913</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>33704</xdr:rowOff>
+      <xdr:rowOff>15845</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15272,8 +15134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2894868" y="3530844"/>
-          <a:ext cx="687997" cy="188302"/>
+          <a:off x="2706200" y="3442464"/>
+          <a:ext cx="678838" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15322,6 +15184,207 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>37002</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>131139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>205604</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>41057</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE72A54-DD67-43C8-BFDF-6EA493859A1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="82" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2799252" y="3874464"/>
+          <a:ext cx="2930852" cy="910043"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25301"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22531</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>120620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156063</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Text Box 324">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9AA97A1-DEE4-4EC2-91EE-75C6461EF49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4718356" y="4864070"/>
+          <a:ext cx="685982" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="18288" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>123664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>154125</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>56164</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="直線矢印コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2EDDCD7-064B-4C7D-A6D8-7A58450C8466}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4982850" y="3541864"/>
+          <a:ext cx="504000" cy="1440000"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -16180,7 +16243,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16198,7 +16261,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="4429125" y="7096125"/>
-          <a:ext cx="409575" cy="257175"/>
+          <a:ext cx="409575" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16271,14 +16334,14 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -16295,8 +16358,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4362450" y="7477125"/>
-          <a:ext cx="533400" cy="276225"/>
+          <a:off x="4362450" y="7439025"/>
+          <a:ext cx="533400" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19878,7 +19941,7 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="J23" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -20484,8 +20547,8 @@
   </sheetPr>
   <dimension ref="A1:AN34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11:AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -20793,12 +20856,12 @@
       <c r="E9" s="80"/>
       <c r="F9" s="81"/>
       <c r="G9" s="96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9" s="83"/>
       <c r="I9" s="84"/>
       <c r="J9" s="95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="86"/>
       <c r="L9" s="86"/>
@@ -20807,7 +20870,7 @@
       <c r="O9" s="86"/>
       <c r="P9" s="87"/>
       <c r="Q9" s="94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R9" s="89"/>
       <c r="S9" s="89"/>
@@ -20824,7 +20887,7 @@
       <c r="AD9" s="89"/>
       <c r="AE9" s="90"/>
       <c r="AF9" s="95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="AG9" s="86"/>
       <c r="AH9" s="86"/>
@@ -20835,7 +20898,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="92" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="79">
@@ -20849,7 +20912,7 @@
       <c r="H10" s="83"/>
       <c r="I10" s="84"/>
       <c r="J10" s="95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
@@ -20858,7 +20921,7 @@
       <c r="O10" s="86"/>
       <c r="P10" s="87"/>
       <c r="Q10" s="94" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
@@ -20886,7 +20949,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="79">
@@ -20895,12 +20958,12 @@
       <c r="E11" s="80"/>
       <c r="F11" s="81"/>
       <c r="G11" s="93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="83"/>
       <c r="I11" s="84"/>
       <c r="J11" s="94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
@@ -20909,7 +20972,7 @@
       <c r="O11" s="86"/>
       <c r="P11" s="87"/>
       <c r="Q11" s="94" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="R11" s="89"/>
       <c r="S11" s="89"/>
@@ -20926,7 +20989,7 @@
       <c r="AD11" s="89"/>
       <c r="AE11" s="90"/>
       <c r="AF11" s="95" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AG11" s="86"/>
       <c r="AH11" s="86"/>
@@ -22363,7 +22426,7 @@
     <row r="7" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37"/>
       <c r="B7" s="74" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
@@ -22439,7 +22502,7 @@
     <row r="9" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="37"/>
       <c r="B9" s="75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38"/>
@@ -22515,7 +22578,7 @@
     <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="37"/>
       <c r="D11" s="33"/>
@@ -22591,7 +22654,7 @@
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="75" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="33"/>
@@ -23474,7 +23537,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -27351,7 +27414,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -29181,7 +29244,6 @@
       <c r="N55" s="15"/>
       <c r="O55" s="15"/>
       <c r="P55" s="15"/>
-      <c r="Q55" s="15"/>
       <c r="R55" s="15"/>
       <c r="S55" s="15"/>
       <c r="T55" s="15"/>
@@ -30704,7 +30766,7 @@
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="86" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
@@ -30930,7 +30992,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -34557,23 +34619,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
@@ -34597,7 +34659,7 @@
   <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -34807,7 +34869,7 @@
     <row r="5" spans="1:38" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
       <c r="B5" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
